--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFF8527-0D19-DB4F-BEEB-9A1270289A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AED115-8CD2-B04A-84C9-CE2221810B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1260" windowWidth="36740" windowHeight="17640" activeTab="4" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="2620" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MC" sheetId="12" r:id="rId3"/>
     <sheet name="IC" sheetId="5" r:id="rId4"/>
     <sheet name="MCcalculations" sheetId="16" r:id="rId5"/>
+    <sheet name="ICcalculations" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="292">
   <si>
     <t>Wards</t>
   </si>
@@ -881,12 +882,48 @@
   </si>
   <si>
     <t>Y28</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>B=</t>
+  </si>
+  <si>
+    <t>utilization</t>
+  </si>
+  <si>
+    <t>utilization_target</t>
+  </si>
+  <si>
+    <t>evryday_util</t>
+  </si>
+  <si>
+    <t>weekend_util</t>
+  </si>
+  <si>
+    <t>total_util</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 spec </t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>2 sepc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1013,7 +1050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1210,15 +1247,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,13 +1339,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1612,15 +1664,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BZ29" sqref="BZ29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="2.83203125" customWidth="1"/>
-    <col min="9" max="36" width="3.5" customWidth="1"/>
+    <col min="9" max="36" width="4.6640625" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
     <col min="38" max="38" width="4.5" customWidth="1"/>
     <col min="39" max="39" width="11.1640625" customWidth="1"/>
@@ -1959,88 +2011,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="N2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="O2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="P2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="U2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="V2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="W2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="X2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AB2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AC2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AD2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AG2" s="29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AH2" s="29">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AI2" s="29">
-        <v>49</v>
-      </c>
-      <c r="AJ2" s="30">
-        <v>49</v>
+        <v>24.5</v>
+      </c>
+      <c r="AJ2" s="29">
+        <v>24.5</v>
       </c>
       <c r="AK2" s="49">
         <v>20</v>
@@ -2254,88 +2306,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="J3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="K3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="L3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="M3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="R3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="S3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="T3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="X3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AA3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AF3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AG3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AH3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI3" s="15">
-        <v>6</v>
-      </c>
-      <c r="AJ3" s="16">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>3</v>
       </c>
       <c r="AK3" s="50">
         <v>2</v>
@@ -8596,8 +8648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B305B3B2-E098-F04C-83CE-B18CE5C01F35}">
   <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11009,13 +11061,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A5F17-A83B-5047-A62F-D9F4A4FFE9EE}">
-  <dimension ref="A1:BE98"/>
+  <dimension ref="A1:BH110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="Y65" sqref="Y65"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -12755,7 +12810,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -12778,7 +12833,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -12801,7 +12856,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -12824,7 +12879,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="41" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="W41" t="s">
         <v>188</v>
       </c>
@@ -12832,7 +12887,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -12841,11 +12896,11 @@
         <v>0.39630769230769225</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" ref="C42:U55" si="0">C2*$X42</f>
+        <f>C2*$X42</f>
         <v>0.18092307692307691</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C42:U55" si="0">D2*$X42</f>
         <v>9.4769230769230758E-2</v>
       </c>
       <c r="E42" s="4">
@@ -12923,8 +12978,11 @@
         <f>W42/20</f>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z42" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -13015,8 +13073,11 @@
         <f t="shared" ref="X43:X66" si="2">W43/20</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -13107,8 +13168,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z44" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -13199,8 +13263,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z45" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -13291,8 +13358,11 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z46" s="62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -13383,8 +13453,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z47" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -13475,8 +13548,11 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z48" s="62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -13567,8 +13643,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z49" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -13659,8 +13738,11 @@
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z50" s="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -13751,8 +13833,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z51" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -13843,8 +13928,11 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z52" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -13935,8 +14023,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z53" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -14027,8 +14118,11 @@
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -14119,8 +14213,11 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z55" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -14211,8 +14308,11 @@
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z56" s="62">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14303,8 +14403,11 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z57" s="62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -14395,8 +14498,11 @@
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z58" s="62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
@@ -14487,8 +14593,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z59" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>105</v>
       </c>
@@ -14579,8 +14688,11 @@
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z60" s="62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
@@ -14671,8 +14783,11 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z61" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -14763,8 +14878,11 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z62" s="62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -14855,8 +14973,11 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z63" s="62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -14947,8 +15068,11 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="Z64" s="62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -15039,8 +15163,11 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z65" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -15131,9 +15258,12 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z66" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -15218,7 +15348,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>191</v>
       </c>
@@ -15304,7 +15434,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>1</v>
       </c>
@@ -15389,92 +15519,92 @@
       <c r="AC72" s="69">
         <v>28</v>
       </c>
-      <c r="AD72">
+      <c r="AG72">
         <v>1</v>
       </c>
-      <c r="AE72">
+      <c r="AH72">
         <v>2</v>
       </c>
-      <c r="AF72">
+      <c r="AI72">
         <v>3</v>
       </c>
-      <c r="AG72">
+      <c r="AJ72">
         <v>4</v>
       </c>
-      <c r="AH72">
+      <c r="AK72">
         <v>5</v>
       </c>
-      <c r="AI72">
+      <c r="AL72">
         <v>6</v>
       </c>
-      <c r="AJ72">
+      <c r="AM72">
         <v>7</v>
       </c>
-      <c r="AK72">
+      <c r="AN72">
         <v>8</v>
       </c>
-      <c r="AL72">
+      <c r="AO72">
         <v>9</v>
       </c>
-      <c r="AM72">
+      <c r="AP72">
         <v>10</v>
       </c>
-      <c r="AN72">
+      <c r="AQ72">
         <v>11</v>
       </c>
-      <c r="AO72">
+      <c r="AR72">
         <v>12</v>
       </c>
-      <c r="AP72">
+      <c r="AS72">
         <v>13</v>
       </c>
-      <c r="AQ72">
+      <c r="AT72">
         <v>14</v>
       </c>
-      <c r="AR72">
+      <c r="AU72">
         <v>15</v>
       </c>
-      <c r="AS72">
+      <c r="AV72">
         <v>16</v>
       </c>
-      <c r="AT72">
+      <c r="AW72">
         <v>17</v>
       </c>
-      <c r="AU72">
+      <c r="AX72">
         <v>18</v>
       </c>
-      <c r="AV72">
+      <c r="AY72">
         <v>19</v>
       </c>
-      <c r="AW72">
+      <c r="AZ72">
         <v>20</v>
       </c>
-      <c r="AX72">
+      <c r="BA72">
         <v>21</v>
       </c>
-      <c r="AY72">
+      <c r="BB72">
         <v>22</v>
       </c>
-      <c r="AZ72">
+      <c r="BC72">
         <v>23</v>
       </c>
-      <c r="BA72">
+      <c r="BD72">
         <v>24</v>
       </c>
-      <c r="BB72">
+      <c r="BE72">
         <v>25</v>
       </c>
-      <c r="BC72">
+      <c r="BF72">
         <v>26</v>
       </c>
-      <c r="BD72">
+      <c r="BG72">
         <v>27</v>
       </c>
-      <c r="BE72">
+      <c r="BH72">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B73">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15557,7 +15687,7 @@
       </c>
       <c r="AC73" s="69"/>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C74">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15640,7 +15770,7 @@
       </c>
       <c r="AC74" s="69"/>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D75">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15723,7 +15853,7 @@
       </c>
       <c r="AC75" s="69"/>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="E76">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15806,7 +15936,7 @@
       </c>
       <c r="AC76" s="69"/>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="F77">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15889,7 +16019,7 @@
       </c>
       <c r="AC77" s="69"/>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="I78">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15972,7 +16102,7 @@
       </c>
       <c r="AC78" s="69"/>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="J79">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16054,7 +16184,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="K80">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16131,12 +16261,12 @@
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AD80">
+      <c r="AG80">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="81" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="L81">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16209,16 +16339,16 @@
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AD81">
+      <c r="AG81">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AE81">
+      <c r="AH81">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="82" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="M82">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16287,20 +16417,20 @@
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AD82">
+      <c r="AG82">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AE82">
+      <c r="AH82">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AF82">
+      <c r="AI82">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="83" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="P83">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16357,32 +16487,32 @@
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AD83">
+      <c r="AG83">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AE83">
+      <c r="AH83">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AF83">
+      <c r="AI83">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AG83">
+      <c r="AJ83">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AH83">
+      <c r="AK83">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AI83">
+      <c r="AL83">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="84" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Q84">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16435,36 +16565,36 @@
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AD84">
+      <c r="AG84">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AE84">
+      <c r="AH84">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AF84">
+      <c r="AI84">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AG84">
+      <c r="AJ84">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AH84">
+      <c r="AK84">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AI84">
+      <c r="AL84">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AJ84">
+      <c r="AM84">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="85" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="R85">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16513,40 +16643,40 @@
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AD85">
+      <c r="AG85">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AE85">
+      <c r="AH85">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AF85">
+      <c r="AI85">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AG85">
+      <c r="AJ85">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AH85">
+      <c r="AK85">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AI85">
+      <c r="AL85">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AJ85">
+      <c r="AM85">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AK85">
+      <c r="AN85">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="86" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="S86">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16591,44 +16721,44 @@
         <f>$L$68</f>
         <v>0.56308329676438607</v>
       </c>
-      <c r="AD86">
+      <c r="AG86">
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AE86">
+      <c r="AH86">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AF86">
+      <c r="AI86">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AG86">
+      <c r="AJ86">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AH86">
+      <c r="AK86">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AI86">
+      <c r="AL86">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AJ86">
+      <c r="AM86">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AK86">
+      <c r="AN86">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AL86">
+      <c r="AO86">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="87" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="T87">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16669,48 +16799,48 @@
         <f>$K$68</f>
         <v>0.73040303151411201</v>
       </c>
-      <c r="AD87">
+      <c r="AG87">
         <f>$L$68</f>
         <v>0.56308329676438607</v>
       </c>
-      <c r="AE87">
+      <c r="AH87">
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AF87">
+      <c r="AI87">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AG87">
+      <c r="AJ87">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AH87">
+      <c r="AK87">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AI87">
+      <c r="AL87">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AJ87">
+      <c r="AM87">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AK87">
+      <c r="AN87">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AL87">
+      <c r="AO87">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AM87">
+      <c r="AP87">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="88" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="W88">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16739,60 +16869,60 @@
         <f>$H$68</f>
         <v>1.6417545009471222</v>
       </c>
-      <c r="AD88">
+      <c r="AG88">
         <f>$I$68</f>
         <v>1.273872000373184</v>
       </c>
-      <c r="AE88">
+      <c r="AH88">
         <f>$J$68</f>
         <v>0.95728549171240884</v>
       </c>
-      <c r="AF88">
+      <c r="AI88">
         <f>$K$68</f>
         <v>0.73040303151411201</v>
       </c>
-      <c r="AG88">
+      <c r="AJ88">
         <f>$L$68</f>
         <v>0.56308329676438607</v>
       </c>
-      <c r="AH88">
+      <c r="AK88">
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AI88">
+      <c r="AL88">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AJ88">
+      <c r="AM88">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AK88">
+      <c r="AN88">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AL88">
+      <c r="AO88">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AM88">
+      <c r="AP88">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AN88">
+      <c r="AQ88">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AO88">
+      <c r="AR88">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AP88">
+      <c r="AS88">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="89" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="X89">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16817,64 +16947,64 @@
         <f>$G$68</f>
         <v>2.0551904235907794</v>
       </c>
-      <c r="AD89">
+      <c r="AG89">
         <f>$H$68</f>
         <v>1.6417545009471222</v>
       </c>
-      <c r="AE89">
+      <c r="AH89">
         <f>$I$68</f>
         <v>1.273872000373184</v>
       </c>
-      <c r="AF89">
+      <c r="AI89">
         <f>$J$68</f>
         <v>0.95728549171240884</v>
       </c>
-      <c r="AG89">
+      <c r="AJ89">
         <f>$K$68</f>
         <v>0.73040303151411201</v>
       </c>
-      <c r="AH89">
+      <c r="AK89">
         <f>$L$68</f>
         <v>0.56308329676438607</v>
       </c>
-      <c r="AI89">
+      <c r="AL89">
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AJ89">
+      <c r="AM89">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AK89">
+      <c r="AN89">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AL89">
+      <c r="AO89">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AM89">
+      <c r="AP89">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AN89">
+      <c r="AQ89">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AO89">
+      <c r="AR89">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AP89">
+      <c r="AS89">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AQ89">
+      <c r="AT89">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="90" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y90">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16895,68 +17025,68 @@
         <f>$F$68</f>
         <v>2.5236707341887188</v>
       </c>
-      <c r="AD90">
+      <c r="AG90">
         <f>$G$68</f>
         <v>2.0551904235907794</v>
       </c>
-      <c r="AE90">
+      <c r="AH90">
         <f>$H$68</f>
         <v>1.6417545009471222</v>
       </c>
-      <c r="AF90">
+      <c r="AI90">
         <f>$I$68</f>
         <v>1.273872000373184</v>
       </c>
-      <c r="AG90">
+      <c r="AJ90">
         <f>$J$68</f>
         <v>0.95728549171240884</v>
       </c>
-      <c r="AH90">
+      <c r="AK90">
         <f>$K$68</f>
         <v>0.73040303151411201</v>
       </c>
-      <c r="AI90">
+      <c r="AL90">
         <f>$L$68</f>
         <v>0.56308329676438607</v>
       </c>
-      <c r="AJ90">
+      <c r="AM90">
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AK90">
+      <c r="AN90">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AL90">
+      <c r="AO90">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AM90">
+      <c r="AP90">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AN90">
+      <c r="AQ90">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AO90">
+      <c r="AR90">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AP90">
+      <c r="AS90">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AQ90">
+      <c r="AT90">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AR90">
+      <c r="AU90">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="91" spans="12:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Z91">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16973,247 +17103,7438 @@
         <f>$E$68</f>
         <v>3.1849598388794802</v>
       </c>
-      <c r="AD91">
+      <c r="AG91">
         <f>$F$68</f>
         <v>2.5236707341887188</v>
       </c>
-      <c r="AE91">
+      <c r="AH91">
         <f>$G$68</f>
         <v>2.0551904235907794</v>
       </c>
-      <c r="AF91">
+      <c r="AI91">
         <f>$H$68</f>
         <v>1.6417545009471222</v>
       </c>
-      <c r="AG91">
+      <c r="AJ91">
         <f>$I$68</f>
         <v>1.273872000373184</v>
       </c>
-      <c r="AH91">
+      <c r="AK91">
         <f>$J$68</f>
         <v>0.95728549171240884</v>
       </c>
-      <c r="AI91">
+      <c r="AL91">
         <f>$K$68</f>
         <v>0.73040303151411201</v>
       </c>
-      <c r="AJ91">
+      <c r="AM91">
         <f>$L$68</f>
         <v>0.56308329676438607</v>
       </c>
-      <c r="AK91">
+      <c r="AN91">
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AL91">
+      <c r="AO91">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AM91">
+      <c r="AP91">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AN91">
+      <c r="AQ91">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AO91">
+      <c r="AR91">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AP91">
+      <c r="AS91">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AQ91">
+      <c r="AT91">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AR91">
+      <c r="AU91">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AS91">
+      <c r="AV91">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="92" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AA92">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73"/>
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="73"/>
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="73"/>
+      <c r="T92" s="73"/>
+      <c r="U92" s="73"/>
+      <c r="V92" s="73"/>
+      <c r="W92" s="73"/>
+      <c r="X92" s="73"/>
+      <c r="Y92" s="73"/>
+      <c r="Z92" s="73"/>
+      <c r="AA92" s="73">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
       </c>
-      <c r="AB92">
+      <c r="AB92" s="73">
         <f>$C$68</f>
         <v>5.8150918776388467</v>
       </c>
-      <c r="AC92">
+      <c r="AC92" s="73">
         <f>$D$68</f>
         <v>3.933010646024556</v>
       </c>
-      <c r="AD92">
+      <c r="AG92">
         <f>$E$68</f>
         <v>3.1849598388794802</v>
       </c>
-      <c r="AE92">
+      <c r="AH92">
         <f>$F$68</f>
         <v>2.5236707341887188</v>
       </c>
-      <c r="AF92">
+      <c r="AI92">
         <f>$G$68</f>
         <v>2.0551904235907794</v>
       </c>
-      <c r="AG92">
+      <c r="AJ92">
         <f>$H$68</f>
         <v>1.6417545009471222</v>
       </c>
-      <c r="AH92">
+      <c r="AK92">
         <f>$I$68</f>
         <v>1.273872000373184</v>
       </c>
-      <c r="AI92">
+      <c r="AL92">
         <f>$J$68</f>
         <v>0.95728549171240884</v>
       </c>
-      <c r="AJ92">
+      <c r="AM92">
         <f>$K$68</f>
         <v>0.73040303151411201</v>
       </c>
-      <c r="AK92">
+      <c r="AN92">
         <f>$L$68</f>
         <v>0.56308329676438607</v>
       </c>
-      <c r="AL92">
+      <c r="AO92">
         <f>$M$68</f>
         <v>0.47469401221331348</v>
       </c>
-      <c r="AM92">
+      <c r="AP92">
         <f>$N$68</f>
         <v>0.38361937972810639</v>
       </c>
-      <c r="AN92">
+      <c r="AQ92">
         <f>$O$68</f>
         <v>0.28279693882597901</v>
       </c>
-      <c r="AO92">
+      <c r="AR92">
         <f>$P$68</f>
         <v>0.20353753982789247</v>
       </c>
-      <c r="AP92">
+      <c r="AS92">
         <f>$Q$68</f>
         <v>0.14858484840988312</v>
       </c>
-      <c r="AQ92">
+      <c r="AT92">
         <f>$R$68</f>
         <v>0.12886602002887176</v>
       </c>
-      <c r="AR92">
+      <c r="AU92">
         <f>$S$68</f>
         <v>8.826748218829758E-2</v>
       </c>
-      <c r="AS92">
+      <c r="AV92">
         <f>$T$68</f>
         <v>5.7146945506268712E-2</v>
       </c>
-      <c r="AT92">
+      <c r="AW92">
         <f>$U$68</f>
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="93" spans="12:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC93" s="69"/>
-    </row>
-    <row r="94" spans="12:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC94" t="s">
+    <row r="93" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>198</v>
       </c>
-      <c r="AD94" s="70">
-        <f>SUM(AD73:AD92)</f>
+      <c r="B93">
+        <f>AG94</f>
         <v>12.746310900322763</v>
       </c>
-      <c r="AE94" s="71">
-        <f t="shared" ref="AE94:AW94" si="6">SUM(AE73:AE92)</f>
+      <c r="C93">
+        <f t="shared" ref="C93:AC93" si="6">AH94</f>
         <v>10.015870622612894</v>
       </c>
-      <c r="AF94" s="71">
+      <c r="D93">
         <f t="shared" si="6"/>
         <v>7.8196279822475763</v>
       </c>
-      <c r="AG94" s="71">
+      <c r="E93">
         <f t="shared" si="6"/>
         <v>6.0184511505921368</v>
       </c>
-      <c r="AH94" s="71">
+      <c r="F93">
         <f t="shared" si="6"/>
         <v>4.6257406685386186</v>
       </c>
-      <c r="AI94" s="71">
+      <c r="G93">
         <f t="shared" si="6"/>
         <v>3.545668315354884</v>
       </c>
-      <c r="AJ94" s="71">
+      <c r="H93">
         <f t="shared" si="6"/>
         <v>2.722594914058571</v>
       </c>
-      <c r="AK94" s="71">
+      <c r="I93">
         <f t="shared" si="6"/>
         <v>2.0668634023434795</v>
       </c>
-      <c r="AL94" s="71">
+      <c r="J93">
         <f t="shared" si="6"/>
         <v>1.564097471800679</v>
       </c>
-      <c r="AM94" s="71">
+      <c r="K93">
         <f t="shared" si="6"/>
         <v>1.1611225341099687</v>
       </c>
-      <c r="AN94" s="71">
+      <c r="L93">
         <f t="shared" si="6"/>
         <v>0.85205282928092396</v>
       </c>
-      <c r="AO94" s="71">
+      <c r="M93">
         <f t="shared" si="6"/>
         <v>0.62640283596121371</v>
       </c>
-      <c r="AP94" s="71">
+      <c r="N93">
         <f t="shared" si="6"/>
         <v>0.43658310342255707</v>
       </c>
-      <c r="AQ94" s="71">
+      <c r="O93">
         <f t="shared" si="6"/>
         <v>0.28799825501267395</v>
       </c>
-      <c r="AR94" s="71">
+      <c r="P93">
         <f t="shared" si="6"/>
         <v>0.15913223498380216</v>
       </c>
-      <c r="AS94" s="71">
+      <c r="Q93">
         <f t="shared" si="6"/>
         <v>7.0864752795504582E-2</v>
       </c>
-      <c r="AT94" s="71">
+      <c r="R93">
         <f t="shared" si="6"/>
         <v>1.3717807289235863E-2</v>
       </c>
+      <c r="S93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF94" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG94" s="70">
+        <f>SUM(AG73:AG92)</f>
+        <v>12.746310900322763</v>
+      </c>
+      <c r="AH94" s="71">
+        <f t="shared" ref="AH94:AZ94" si="7">SUM(AH73:AH92)</f>
+        <v>10.015870622612894</v>
+      </c>
+      <c r="AI94" s="71">
+        <f t="shared" si="7"/>
+        <v>7.8196279822475763</v>
+      </c>
+      <c r="AJ94" s="71">
+        <f t="shared" si="7"/>
+        <v>6.0184511505921368</v>
+      </c>
+      <c r="AK94" s="71">
+        <f t="shared" si="7"/>
+        <v>4.6257406685386186</v>
+      </c>
+      <c r="AL94" s="71">
+        <f t="shared" si="7"/>
+        <v>3.545668315354884</v>
+      </c>
+      <c r="AM94" s="71">
+        <f t="shared" si="7"/>
+        <v>2.722594914058571</v>
+      </c>
+      <c r="AN94" s="71">
+        <f t="shared" si="7"/>
+        <v>2.0668634023434795</v>
+      </c>
+      <c r="AO94" s="71">
+        <f t="shared" si="7"/>
+        <v>1.564097471800679</v>
+      </c>
+      <c r="AP94" s="71">
+        <f t="shared" si="7"/>
+        <v>1.1611225341099687</v>
+      </c>
+      <c r="AQ94" s="71">
+        <f t="shared" si="7"/>
+        <v>0.85205282928092396</v>
+      </c>
+      <c r="AR94" s="71">
+        <f t="shared" si="7"/>
+        <v>0.62640283596121371</v>
+      </c>
+      <c r="AS94" s="71">
+        <f t="shared" si="7"/>
+        <v>0.43658310342255707</v>
+      </c>
+      <c r="AT94" s="71">
+        <f t="shared" si="7"/>
+        <v>0.28799825501267395</v>
+      </c>
       <c r="AU94" s="71">
+        <f t="shared" si="7"/>
+        <v>0.15913223498380216</v>
+      </c>
+      <c r="AV94" s="71">
+        <f t="shared" si="7"/>
+        <v>7.0864752795504582E-2</v>
+      </c>
+      <c r="AW94" s="71">
+        <f t="shared" si="7"/>
+        <v>1.3717807289235863E-2</v>
+      </c>
+      <c r="AX94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BB94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BC94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BD94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BE94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BG94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BH94" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95">
+        <f>SUM(B73:B93)</f>
+        <v>21.177992521116323</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:AC95" si="8">SUM(C73:C93)</f>
+        <v>24.262644121045298</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>25.999412126704534</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>27.383195133928581</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>28.514155386063777</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>21.057591835677265</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>16.061181057689229</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="8"/>
+        <v>21.177992521116323</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="8"/>
+        <v>24.262644121045295</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>25.999412126704534</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="8"/>
+        <v>27.383195133928581</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="8"/>
+        <v>28.514155386063777</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="8"/>
+        <v>21.057591835677265</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="8"/>
+        <v>16.061181057689225</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="8"/>
+        <v>21.177992521116323</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="8"/>
+        <v>24.262644121045295</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>25.999412126704538</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="8"/>
+        <v>27.383195133928577</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="8"/>
+        <v>28.514155386063777</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="8"/>
+        <v>21.057591835677265</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="8"/>
+        <v>16.061181057689225</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="8"/>
+        <v>21.177992521116323</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="8"/>
+        <v>24.262644121045298</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="8"/>
+        <v>25.999412126704538</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="8"/>
+        <v>27.383195133928577</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="8"/>
+        <v>28.514155386063777</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="8"/>
+        <v>21.057591835677265</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="8"/>
+        <v>16.061181057689225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="AF96" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS96" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT96" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU96" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV96" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW96" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97">
+        <f>B95/$A$99</f>
+        <v>0.70593308403721078</v>
+      </c>
+      <c r="C97">
+        <f>C95/$A$99</f>
+        <v>0.80875480403484323</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:R97" si="9">D95/$A$99</f>
+        <v>0.86664707089015114</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="9"/>
+        <v>0.91277317113095269</v>
+      </c>
+      <c r="F97">
+        <f>F95/$A$100</f>
+        <v>1.163843076982195</v>
+      </c>
+      <c r="G97">
+        <f>G95/$A$100</f>
+        <v>0.85949354431335778</v>
+      </c>
+      <c r="H97">
+        <f>H95/$A$100</f>
+        <v>0.65555841051792774</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ref="I97:J97" si="10">I95/$A$99</f>
+        <v>0.70593308403721078</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="10"/>
+        <v>0.80875480403484312</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="9"/>
+        <v>0.86664707089015114</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="9"/>
+        <v>0.91277317113095269</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ref="M97:O97" si="11">M95/$A$100</f>
+        <v>1.163843076982195</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="11"/>
+        <v>0.85949354431335778</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="11"/>
+        <v>0.65555841051792751</v>
+      </c>
+      <c r="P97">
+        <f t="shared" ref="P97:Q97" si="12">P95/$A$99</f>
+        <v>0.70593308403721078</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="12"/>
+        <v>0.80875480403484312</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="9"/>
+        <v>0.86664707089015125</v>
+      </c>
+      <c r="S97">
+        <f t="shared" ref="S97:Z97" si="13">S95/$A$99</f>
+        <v>0.91277317113095258</v>
+      </c>
+      <c r="T97">
+        <f t="shared" ref="T97:V97" si="14">T95/$A$100</f>
+        <v>1.163843076982195</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="14"/>
+        <v>0.85949354431335778</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="14"/>
+        <v>0.65555841051792751</v>
+      </c>
+      <c r="W97">
+        <f t="shared" ref="W97:X97" si="15">W95/$A$99</f>
+        <v>0.70593308403721078</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="15"/>
+        <v>0.80875480403484323</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="13"/>
+        <v>0.86664707089015125</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="13"/>
+        <v>0.91277317113095258</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" ref="AA97:AC97" si="16">AA95/$A$100</f>
+        <v>1.163843076982195</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="16"/>
+        <v>0.85949354431335778</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="16"/>
+        <v>0.65555841051792751</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>230</v>
+      </c>
+      <c r="AS97" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT97" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV97" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW97" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>0</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS98" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT98" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV98" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW98" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" t="s">
+        <v>286</v>
+      </c>
+      <c r="E102" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C103" s="75">
+        <f>(SUM(B97:E97)+SUM(I97:L97)+SUM(P97:S97)+SUM(W97:Z97))/(16)</f>
+        <v>0.82352703252328951</v>
+      </c>
+      <c r="D103" s="75">
+        <f>(SUM(F97:H97)+SUM(M97:O97)+SUM(T97:V97)+SUM(AA97:AC97))/12</f>
+        <v>0.89296501060449351</v>
+      </c>
+      <c r="E103" s="75">
+        <f>C103*16/28+D103*12/28</f>
+        <v>0.85328616598666263</v>
+      </c>
+    </row>
+    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>289</v>
+      </c>
+      <c r="E107" t="s">
+        <v>285</v>
+      </c>
+      <c r="F107" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>24.5</v>
+      </c>
+      <c r="E108" s="74">
+        <v>0.82352703252328951</v>
+      </c>
+      <c r="F108" s="74">
+        <v>0.89296501060449351</v>
+      </c>
+      <c r="G108" s="74">
+        <v>0.85328616598666263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>13.3</v>
+      </c>
+      <c r="E109" s="74">
+        <v>0.82472173582088448</v>
+      </c>
+      <c r="F109" s="74">
+        <v>0.89123068627295832</v>
+      </c>
+      <c r="G109" s="74">
+        <v>0.85322557172891611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110">
+        <v>15</v>
+      </c>
+      <c r="C110">
+        <v>11.2</v>
+      </c>
+      <c r="E110" s="74">
+        <v>0.8223323292256941</v>
+      </c>
+      <c r="F110" s="74">
+        <v>0.89502452074819117</v>
+      </c>
+      <c r="G110" s="74">
+        <v>0.85348612559247861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82CCB1A-FBCF-4E47-8A85-D286B5326D8E}">
+  <dimension ref="A1:BH110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="52">
+        <v>2.4615384615384615E-2</v>
+      </c>
+      <c r="C2" s="53">
+        <v>1.2307692307692308E-2</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0</v>
+      </c>
+      <c r="E2" s="53">
+        <v>0</v>
+      </c>
+      <c r="F2" s="53">
+        <v>0</v>
+      </c>
+      <c r="G2" s="53">
+        <v>0</v>
+      </c>
+      <c r="H2" s="53">
+        <v>0</v>
+      </c>
+      <c r="I2" s="53">
+        <v>0</v>
+      </c>
+      <c r="J2" s="53">
+        <v>0</v>
+      </c>
+      <c r="K2" s="53">
+        <v>0</v>
+      </c>
+      <c r="L2" s="53">
+        <v>0</v>
+      </c>
+      <c r="M2" s="53">
+        <v>0</v>
+      </c>
+      <c r="N2" s="53">
+        <v>0</v>
+      </c>
+      <c r="O2" s="53">
+        <v>0</v>
+      </c>
+      <c r="P2" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="53">
+        <v>0</v>
+      </c>
+      <c r="R2" s="53">
+        <v>0</v>
+      </c>
+      <c r="S2" s="53">
+        <v>0</v>
+      </c>
+      <c r="T2" s="53">
+        <v>0</v>
+      </c>
+      <c r="U2" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="55">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="C3" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="56">
+        <v>0</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0</v>
+      </c>
+      <c r="F3" s="56">
+        <v>0</v>
+      </c>
+      <c r="G3" s="56">
+        <v>0</v>
+      </c>
+      <c r="H3" s="56">
+        <v>0</v>
+      </c>
+      <c r="I3" s="56">
+        <v>0</v>
+      </c>
+      <c r="J3" s="56">
+        <v>0</v>
+      </c>
+      <c r="K3" s="56">
+        <v>0</v>
+      </c>
+      <c r="L3" s="56">
+        <v>0</v>
+      </c>
+      <c r="M3" s="56">
+        <v>0</v>
+      </c>
+      <c r="N3" s="56">
+        <v>0</v>
+      </c>
+      <c r="O3" s="56">
+        <v>0</v>
+      </c>
+      <c r="P3" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>0</v>
+      </c>
+      <c r="R3" s="56">
+        <v>0</v>
+      </c>
+      <c r="S3" s="56">
+        <v>0</v>
+      </c>
+      <c r="T3" s="56">
+        <v>0</v>
+      </c>
+      <c r="U3" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="55">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C4" s="56">
+        <v>0</v>
+      </c>
+      <c r="D4" s="56">
+        <v>0</v>
+      </c>
+      <c r="E4" s="56">
+        <v>0</v>
+      </c>
+      <c r="F4" s="56">
+        <v>0</v>
+      </c>
+      <c r="G4" s="56">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56">
+        <v>0</v>
+      </c>
+      <c r="I4" s="56">
+        <v>0</v>
+      </c>
+      <c r="J4" s="56">
+        <v>0</v>
+      </c>
+      <c r="K4" s="56">
+        <v>0</v>
+      </c>
+      <c r="L4" s="56">
+        <v>0</v>
+      </c>
+      <c r="M4" s="56">
+        <v>0</v>
+      </c>
+      <c r="N4" s="56">
+        <v>0</v>
+      </c>
+      <c r="O4" s="56">
+        <v>0</v>
+      </c>
+      <c r="P4" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>0</v>
+      </c>
+      <c r="R4" s="56">
+        <v>0</v>
+      </c>
+      <c r="S4" s="56">
+        <v>0</v>
+      </c>
+      <c r="T4" s="56">
+        <v>0</v>
+      </c>
+      <c r="U4" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="55">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="C5" s="56">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="D5" s="56">
+        <v>0</v>
+      </c>
+      <c r="E5" s="56">
+        <v>0</v>
+      </c>
+      <c r="F5" s="56">
+        <v>0</v>
+      </c>
+      <c r="G5" s="56">
+        <v>0</v>
+      </c>
+      <c r="H5" s="56">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56">
+        <v>0</v>
+      </c>
+      <c r="J5" s="56">
+        <v>0</v>
+      </c>
+      <c r="K5" s="56">
+        <v>0</v>
+      </c>
+      <c r="L5" s="56">
+        <v>0</v>
+      </c>
+      <c r="M5" s="56">
+        <v>0</v>
+      </c>
+      <c r="N5" s="56">
+        <v>0</v>
+      </c>
+      <c r="O5" s="56">
+        <v>0</v>
+      </c>
+      <c r="P5" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>0</v>
+      </c>
+      <c r="R5" s="56">
+        <v>0</v>
+      </c>
+      <c r="S5" s="56">
+        <v>0</v>
+      </c>
+      <c r="T5" s="56">
+        <v>0</v>
+      </c>
+      <c r="U5" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="55">
+        <v>0.79591836734693877</v>
+      </c>
+      <c r="C6" s="56">
+        <v>0.26530612244897961</v>
+      </c>
+      <c r="D6" s="56">
+        <v>0</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0</v>
+      </c>
+      <c r="F6" s="56">
+        <v>0</v>
+      </c>
+      <c r="G6" s="56">
+        <v>0</v>
+      </c>
+      <c r="H6" s="56">
+        <v>0</v>
+      </c>
+      <c r="I6" s="56">
+        <v>0</v>
+      </c>
+      <c r="J6" s="56">
+        <v>0</v>
+      </c>
+      <c r="K6" s="56">
+        <v>0</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0</v>
+      </c>
+      <c r="M6" s="56">
+        <v>0</v>
+      </c>
+      <c r="N6" s="56">
+        <v>0</v>
+      </c>
+      <c r="O6" s="56">
+        <v>0</v>
+      </c>
+      <c r="P6" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>0</v>
+      </c>
+      <c r="R6" s="56">
+        <v>0</v>
+      </c>
+      <c r="S6" s="56">
+        <v>0</v>
+      </c>
+      <c r="T6" s="56">
+        <v>0</v>
+      </c>
+      <c r="U6" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="56">
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="D7" s="56">
+        <v>0</v>
+      </c>
+      <c r="E7" s="56">
+        <v>0</v>
+      </c>
+      <c r="F7" s="56">
+        <v>0</v>
+      </c>
+      <c r="G7" s="56">
+        <v>0</v>
+      </c>
+      <c r="H7" s="56">
+        <v>0</v>
+      </c>
+      <c r="I7" s="56">
+        <v>0</v>
+      </c>
+      <c r="J7" s="56">
+        <v>0</v>
+      </c>
+      <c r="K7" s="56">
+        <v>0</v>
+      </c>
+      <c r="L7" s="56">
+        <v>0</v>
+      </c>
+      <c r="M7" s="56">
+        <v>0</v>
+      </c>
+      <c r="N7" s="56">
+        <v>0</v>
+      </c>
+      <c r="O7" s="56">
+        <v>0</v>
+      </c>
+      <c r="P7" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>0</v>
+      </c>
+      <c r="R7" s="56">
+        <v>0</v>
+      </c>
+      <c r="S7" s="56">
+        <v>0</v>
+      </c>
+      <c r="T7" s="56">
+        <v>0</v>
+      </c>
+      <c r="U7" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="55">
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="C8" s="56">
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="D8" s="56">
+        <v>0</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0</v>
+      </c>
+      <c r="F8" s="56">
+        <v>0</v>
+      </c>
+      <c r="G8" s="56">
+        <v>0</v>
+      </c>
+      <c r="H8" s="56">
+        <v>0</v>
+      </c>
+      <c r="I8" s="56">
+        <v>0</v>
+      </c>
+      <c r="J8" s="56">
+        <v>0</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0</v>
+      </c>
+      <c r="L8" s="56">
+        <v>0</v>
+      </c>
+      <c r="M8" s="56">
+        <v>0</v>
+      </c>
+      <c r="N8" s="56">
+        <v>0</v>
+      </c>
+      <c r="O8" s="56">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>0</v>
+      </c>
+      <c r="R8" s="56">
+        <v>0</v>
+      </c>
+      <c r="S8" s="56">
+        <v>0</v>
+      </c>
+      <c r="T8" s="56">
+        <v>0</v>
+      </c>
+      <c r="U8" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="55">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="C9" s="56">
+        <v>0.27350427350427353</v>
+      </c>
+      <c r="D9" s="56">
+        <v>0</v>
+      </c>
+      <c r="E9" s="56">
+        <v>0</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0</v>
+      </c>
+      <c r="G9" s="56">
+        <v>0</v>
+      </c>
+      <c r="H9" s="56">
+        <v>0</v>
+      </c>
+      <c r="I9" s="56">
+        <v>0</v>
+      </c>
+      <c r="J9" s="56">
+        <v>0</v>
+      </c>
+      <c r="K9" s="56">
+        <v>0</v>
+      </c>
+      <c r="L9" s="56">
+        <v>0</v>
+      </c>
+      <c r="M9" s="56">
+        <v>0</v>
+      </c>
+      <c r="N9" s="56">
+        <v>0</v>
+      </c>
+      <c r="O9" s="56">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>0</v>
+      </c>
+      <c r="R9" s="56">
+        <v>0</v>
+      </c>
+      <c r="S9" s="56">
+        <v>0</v>
+      </c>
+      <c r="T9" s="56">
+        <v>0</v>
+      </c>
+      <c r="U9" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="55">
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="C10" s="56">
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="D10" s="56">
+        <v>0</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0</v>
+      </c>
+      <c r="G10" s="56">
+        <v>0</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0</v>
+      </c>
+      <c r="I10" s="56">
+        <v>0</v>
+      </c>
+      <c r="J10" s="56">
+        <v>0</v>
+      </c>
+      <c r="K10" s="56">
+        <v>0</v>
+      </c>
+      <c r="L10" s="56">
+        <v>0</v>
+      </c>
+      <c r="M10" s="56">
+        <v>0</v>
+      </c>
+      <c r="N10" s="56">
+        <v>0</v>
+      </c>
+      <c r="O10" s="56">
+        <v>0</v>
+      </c>
+      <c r="P10" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>0</v>
+      </c>
+      <c r="R10" s="56">
+        <v>0</v>
+      </c>
+      <c r="S10" s="56">
+        <v>0</v>
+      </c>
+      <c r="T10" s="56">
+        <v>0</v>
+      </c>
+      <c r="U10" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="55">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C11" s="56">
+        <v>0</v>
+      </c>
+      <c r="D11" s="56">
+        <v>0</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0</v>
+      </c>
+      <c r="G11" s="56">
+        <v>0</v>
+      </c>
+      <c r="H11" s="56">
+        <v>0</v>
+      </c>
+      <c r="I11" s="56">
+        <v>0</v>
+      </c>
+      <c r="J11" s="56">
+        <v>0</v>
+      </c>
+      <c r="K11" s="56">
+        <v>0</v>
+      </c>
+      <c r="L11" s="56">
+        <v>0</v>
+      </c>
+      <c r="M11" s="56">
+        <v>0</v>
+      </c>
+      <c r="N11" s="56">
+        <v>0</v>
+      </c>
+      <c r="O11" s="56">
+        <v>0</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>0</v>
+      </c>
+      <c r="R11" s="56">
+        <v>0</v>
+      </c>
+      <c r="S11" s="56">
+        <v>0</v>
+      </c>
+      <c r="T11" s="56">
+        <v>0</v>
+      </c>
+      <c r="U11" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="55">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="C12" s="56">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D12" s="56">
+        <v>0</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0</v>
+      </c>
+      <c r="G12" s="56">
+        <v>0</v>
+      </c>
+      <c r="H12" s="56">
+        <v>0</v>
+      </c>
+      <c r="I12" s="56">
+        <v>0</v>
+      </c>
+      <c r="J12" s="56">
+        <v>0</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0</v>
+      </c>
+      <c r="L12" s="56">
+        <v>0</v>
+      </c>
+      <c r="M12" s="56">
+        <v>0</v>
+      </c>
+      <c r="N12" s="56">
+        <v>0</v>
+      </c>
+      <c r="O12" s="56">
+        <v>0</v>
+      </c>
+      <c r="P12" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>0</v>
+      </c>
+      <c r="R12" s="56">
+        <v>0</v>
+      </c>
+      <c r="S12" s="56">
+        <v>0</v>
+      </c>
+      <c r="T12" s="56">
+        <v>0</v>
+      </c>
+      <c r="U12" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="56">
+        <v>1</v>
+      </c>
+      <c r="D13" s="56">
+        <v>0</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
+      <c r="G13" s="56">
+        <v>0</v>
+      </c>
+      <c r="H13" s="56">
+        <v>0</v>
+      </c>
+      <c r="I13" s="56">
+        <v>0</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0</v>
+      </c>
+      <c r="K13" s="56">
+        <v>0</v>
+      </c>
+      <c r="L13" s="56">
+        <v>0</v>
+      </c>
+      <c r="M13" s="56">
+        <v>0</v>
+      </c>
+      <c r="N13" s="56">
+        <v>0</v>
+      </c>
+      <c r="O13" s="56">
+        <v>0</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>0</v>
+      </c>
+      <c r="R13" s="56">
+        <v>0</v>
+      </c>
+      <c r="S13" s="56">
+        <v>0</v>
+      </c>
+      <c r="T13" s="56">
+        <v>0</v>
+      </c>
+      <c r="U13" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="55">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="C14" s="56">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D14" s="56">
+        <v>0</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="56">
+        <v>0</v>
+      </c>
+      <c r="H14" s="56">
+        <v>0</v>
+      </c>
+      <c r="I14" s="56">
+        <v>0</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="56">
+        <v>0</v>
+      </c>
+      <c r="L14" s="56">
+        <v>0</v>
+      </c>
+      <c r="M14" s="56">
+        <v>0</v>
+      </c>
+      <c r="N14" s="56">
+        <v>0</v>
+      </c>
+      <c r="O14" s="56">
+        <v>0</v>
+      </c>
+      <c r="P14" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>0</v>
+      </c>
+      <c r="R14" s="56">
+        <v>0</v>
+      </c>
+      <c r="S14" s="56">
+        <v>0</v>
+      </c>
+      <c r="T14" s="56">
+        <v>0</v>
+      </c>
+      <c r="U14" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="55">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="C15" s="56">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="D15" s="56">
+        <v>0</v>
+      </c>
+      <c r="E15" s="56">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0</v>
+      </c>
+      <c r="G15" s="56">
+        <v>0</v>
+      </c>
+      <c r="H15" s="56">
+        <v>0</v>
+      </c>
+      <c r="I15" s="56">
+        <v>0</v>
+      </c>
+      <c r="J15" s="56">
+        <v>0</v>
+      </c>
+      <c r="K15" s="56">
+        <v>0</v>
+      </c>
+      <c r="L15" s="56">
+        <v>0</v>
+      </c>
+      <c r="M15" s="56">
+        <v>0</v>
+      </c>
+      <c r="N15" s="56">
+        <v>0</v>
+      </c>
+      <c r="O15" s="56">
+        <v>0</v>
+      </c>
+      <c r="P15" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>0</v>
+      </c>
+      <c r="R15" s="56">
+        <v>0</v>
+      </c>
+      <c r="S15" s="56">
+        <v>0</v>
+      </c>
+      <c r="T15" s="56">
+        <v>0</v>
+      </c>
+      <c r="U15" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="55">
+        <v>9.5419847328244278E-3</v>
+      </c>
+      <c r="C16" s="56">
+        <v>3.8167938931297708E-3</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+      <c r="G16" s="56">
+        <v>0</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0</v>
+      </c>
+      <c r="L16" s="56">
+        <v>0</v>
+      </c>
+      <c r="M16" s="56">
+        <v>0</v>
+      </c>
+      <c r="N16" s="56">
+        <v>0</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0</v>
+      </c>
+      <c r="P16" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="56">
+        <v>0</v>
+      </c>
+      <c r="R16" s="56">
+        <v>0</v>
+      </c>
+      <c r="S16" s="56">
+        <v>0</v>
+      </c>
+      <c r="T16" s="56">
+        <v>0</v>
+      </c>
+      <c r="U16" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="55">
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="C17" s="56">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0</v>
+      </c>
+      <c r="G17" s="56">
+        <v>0</v>
+      </c>
+      <c r="H17" s="56">
+        <v>0</v>
+      </c>
+      <c r="I17" s="56">
+        <v>0</v>
+      </c>
+      <c r="J17" s="56">
+        <v>0</v>
+      </c>
+      <c r="K17" s="56">
+        <v>0</v>
+      </c>
+      <c r="L17" s="56">
+        <v>0</v>
+      </c>
+      <c r="M17" s="56">
+        <v>0</v>
+      </c>
+      <c r="N17" s="56">
+        <v>0</v>
+      </c>
+      <c r="O17" s="56">
+        <v>0</v>
+      </c>
+      <c r="P17" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="56">
+        <v>0</v>
+      </c>
+      <c r="R17" s="56">
+        <v>0</v>
+      </c>
+      <c r="S17" s="56">
+        <v>0</v>
+      </c>
+      <c r="T17" s="56">
+        <v>0</v>
+      </c>
+      <c r="U17" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="55">
+        <v>6.6132264529058113E-2</v>
+      </c>
+      <c r="C18" s="56">
+        <v>3.406813627254509E-2</v>
+      </c>
+      <c r="D18" s="56">
+        <v>0</v>
+      </c>
+      <c r="E18" s="56">
+        <v>0</v>
+      </c>
+      <c r="F18" s="56">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56">
+        <v>0</v>
+      </c>
+      <c r="H18" s="56">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56">
+        <v>0</v>
+      </c>
+      <c r="J18" s="56">
+        <v>0</v>
+      </c>
+      <c r="K18" s="56">
+        <v>0</v>
+      </c>
+      <c r="L18" s="56">
+        <v>0</v>
+      </c>
+      <c r="M18" s="56">
+        <v>0</v>
+      </c>
+      <c r="N18" s="56">
+        <v>0</v>
+      </c>
+      <c r="O18" s="56">
+        <v>0</v>
+      </c>
+      <c r="P18" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="56">
+        <v>0</v>
+      </c>
+      <c r="R18" s="56">
+        <v>0</v>
+      </c>
+      <c r="S18" s="56">
+        <v>0</v>
+      </c>
+      <c r="T18" s="56">
+        <v>0</v>
+      </c>
+      <c r="U18" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="55">
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="C19" s="56">
+        <v>0.34146341463414637</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0</v>
+      </c>
+      <c r="G19" s="56">
+        <v>0</v>
+      </c>
+      <c r="H19" s="56">
+        <v>0</v>
+      </c>
+      <c r="I19" s="56">
+        <v>0</v>
+      </c>
+      <c r="J19" s="56">
+        <v>0</v>
+      </c>
+      <c r="K19" s="56">
+        <v>0</v>
+      </c>
+      <c r="L19" s="56">
+        <v>0</v>
+      </c>
+      <c r="M19" s="56">
+        <v>0</v>
+      </c>
+      <c r="N19" s="56">
+        <v>0</v>
+      </c>
+      <c r="O19" s="56">
+        <v>0</v>
+      </c>
+      <c r="P19" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="56">
+        <v>0</v>
+      </c>
+      <c r="R19" s="56">
+        <v>0</v>
+      </c>
+      <c r="S19" s="56">
+        <v>0</v>
+      </c>
+      <c r="T19" s="56">
+        <v>0</v>
+      </c>
+      <c r="U19" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="55">
+        <v>0.3576923076923077</v>
+      </c>
+      <c r="C20" s="56">
+        <v>0.17692307692307693</v>
+      </c>
+      <c r="D20" s="56">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>0</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0</v>
+      </c>
+      <c r="G20" s="56">
+        <v>0</v>
+      </c>
+      <c r="H20" s="56">
+        <v>0</v>
+      </c>
+      <c r="I20" s="56">
+        <v>0</v>
+      </c>
+      <c r="J20" s="56">
+        <v>0</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0</v>
+      </c>
+      <c r="L20" s="56">
+        <v>0</v>
+      </c>
+      <c r="M20" s="56">
+        <v>0</v>
+      </c>
+      <c r="N20" s="56">
+        <v>0</v>
+      </c>
+      <c r="O20" s="56">
+        <v>0</v>
+      </c>
+      <c r="P20" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>0</v>
+      </c>
+      <c r="R20" s="56">
+        <v>0</v>
+      </c>
+      <c r="S20" s="56">
+        <v>0</v>
+      </c>
+      <c r="T20" s="56">
+        <v>0</v>
+      </c>
+      <c r="U20" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="55">
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="C21" s="56">
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0</v>
+      </c>
+      <c r="E21" s="56">
+        <v>0</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0</v>
+      </c>
+      <c r="G21" s="56">
+        <v>0</v>
+      </c>
+      <c r="H21" s="56">
+        <v>0</v>
+      </c>
+      <c r="I21" s="56">
+        <v>0</v>
+      </c>
+      <c r="J21" s="56">
+        <v>0</v>
+      </c>
+      <c r="K21" s="56">
+        <v>0</v>
+      </c>
+      <c r="L21" s="56">
+        <v>0</v>
+      </c>
+      <c r="M21" s="56">
+        <v>0</v>
+      </c>
+      <c r="N21" s="56">
+        <v>0</v>
+      </c>
+      <c r="O21" s="56">
+        <v>0</v>
+      </c>
+      <c r="P21" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="56">
+        <v>0</v>
+      </c>
+      <c r="R21" s="56">
+        <v>0</v>
+      </c>
+      <c r="S21" s="56">
+        <v>0</v>
+      </c>
+      <c r="T21" s="56">
+        <v>0</v>
+      </c>
+      <c r="U21" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="55">
+        <v>8.0717488789237665E-2</v>
+      </c>
+      <c r="C22" s="56">
+        <v>4.0358744394618833E-2</v>
+      </c>
+      <c r="D22" s="56">
+        <v>0</v>
+      </c>
+      <c r="E22" s="56">
+        <v>0</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22" s="56">
+        <v>0</v>
+      </c>
+      <c r="H22" s="56">
+        <v>0</v>
+      </c>
+      <c r="I22" s="56">
+        <v>0</v>
+      </c>
+      <c r="J22" s="56">
+        <v>0</v>
+      </c>
+      <c r="K22" s="56">
+        <v>0</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0</v>
+      </c>
+      <c r="M22" s="56">
+        <v>0</v>
+      </c>
+      <c r="N22" s="56">
+        <v>0</v>
+      </c>
+      <c r="O22" s="56">
+        <v>0</v>
+      </c>
+      <c r="P22" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>0</v>
+      </c>
+      <c r="R22" s="56">
+        <v>0</v>
+      </c>
+      <c r="S22" s="56">
+        <v>0</v>
+      </c>
+      <c r="T22" s="56">
+        <v>0</v>
+      </c>
+      <c r="U22" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="55">
+        <v>0</v>
+      </c>
+      <c r="C23" s="56">
+        <v>0</v>
+      </c>
+      <c r="D23" s="56">
+        <v>0</v>
+      </c>
+      <c r="E23" s="56">
+        <v>0</v>
+      </c>
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56">
+        <v>0</v>
+      </c>
+      <c r="H23" s="56">
+        <v>0</v>
+      </c>
+      <c r="I23" s="56">
+        <v>0</v>
+      </c>
+      <c r="J23" s="56">
+        <v>0</v>
+      </c>
+      <c r="K23" s="56">
+        <v>0</v>
+      </c>
+      <c r="L23" s="56">
+        <v>0</v>
+      </c>
+      <c r="M23" s="56">
+        <v>0</v>
+      </c>
+      <c r="N23" s="56">
+        <v>0</v>
+      </c>
+      <c r="O23" s="56">
+        <v>0</v>
+      </c>
+      <c r="P23" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>0</v>
+      </c>
+      <c r="R23" s="56">
+        <v>0</v>
+      </c>
+      <c r="S23" s="56">
+        <v>0</v>
+      </c>
+      <c r="T23" s="56">
+        <v>0</v>
+      </c>
+      <c r="U23" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="55">
+        <v>2.7522935779816515E-2</v>
+      </c>
+      <c r="C24" s="56">
+        <v>1.834862385321101E-2</v>
+      </c>
+      <c r="D24" s="56">
+        <v>0</v>
+      </c>
+      <c r="E24" s="56">
+        <v>0</v>
+      </c>
+      <c r="F24" s="56">
+        <v>0</v>
+      </c>
+      <c r="G24" s="56">
+        <v>0</v>
+      </c>
+      <c r="H24" s="56">
+        <v>0</v>
+      </c>
+      <c r="I24" s="56">
+        <v>0</v>
+      </c>
+      <c r="J24" s="56">
+        <v>0</v>
+      </c>
+      <c r="K24" s="56">
+        <v>0</v>
+      </c>
+      <c r="L24" s="56">
+        <v>0</v>
+      </c>
+      <c r="M24" s="56">
+        <v>0</v>
+      </c>
+      <c r="N24" s="56">
+        <v>0</v>
+      </c>
+      <c r="O24" s="56">
+        <v>0</v>
+      </c>
+      <c r="P24" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>0</v>
+      </c>
+      <c r="R24" s="56">
+        <v>0</v>
+      </c>
+      <c r="S24" s="56">
+        <v>0</v>
+      </c>
+      <c r="T24" s="56">
+        <v>0</v>
+      </c>
+      <c r="U24" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="55">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C25" s="56">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="D25" s="56">
+        <v>0</v>
+      </c>
+      <c r="E25" s="56">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0</v>
+      </c>
+      <c r="G25" s="56">
+        <v>0</v>
+      </c>
+      <c r="H25" s="56">
+        <v>0</v>
+      </c>
+      <c r="I25" s="56">
+        <v>0</v>
+      </c>
+      <c r="J25" s="56">
+        <v>0</v>
+      </c>
+      <c r="K25" s="56">
+        <v>0</v>
+      </c>
+      <c r="L25" s="56">
+        <v>0</v>
+      </c>
+      <c r="M25" s="56">
+        <v>0</v>
+      </c>
+      <c r="N25" s="56">
+        <v>0</v>
+      </c>
+      <c r="O25" s="56">
+        <v>0</v>
+      </c>
+      <c r="P25" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="56">
+        <v>0</v>
+      </c>
+      <c r="R25" s="56">
+        <v>0</v>
+      </c>
+      <c r="S25" s="56">
+        <v>0</v>
+      </c>
+      <c r="T25" s="56">
+        <v>0</v>
+      </c>
+      <c r="U25" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="58">
+        <v>0</v>
+      </c>
+      <c r="C26" s="59">
+        <v>0</v>
+      </c>
+      <c r="D26" s="59">
+        <v>0</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0</v>
+      </c>
+      <c r="F26" s="59">
+        <v>0</v>
+      </c>
+      <c r="G26" s="59">
+        <v>0</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0</v>
+      </c>
+      <c r="I26" s="59">
+        <v>0</v>
+      </c>
+      <c r="J26" s="59">
+        <v>0</v>
+      </c>
+      <c r="K26" s="59">
+        <v>0</v>
+      </c>
+      <c r="L26" s="59">
+        <v>0</v>
+      </c>
+      <c r="M26" s="59">
+        <v>0</v>
+      </c>
+      <c r="N26" s="59">
+        <v>0</v>
+      </c>
+      <c r="O26" s="59">
+        <v>0</v>
+      </c>
+      <c r="P26" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="59">
+        <v>0</v>
+      </c>
+      <c r="R26" s="59">
+        <v>0</v>
+      </c>
+      <c r="S26" s="59">
+        <v>0</v>
+      </c>
+      <c r="T26" s="59">
+        <v>0</v>
+      </c>
+      <c r="U26" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="41" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W41" t="s">
+        <v>188</v>
+      </c>
+      <c r="X41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B2*$X42</f>
+        <v>3.446153846153846E-2</v>
+      </c>
+      <c r="C42" s="4">
+        <f>C2*$X42</f>
+        <v>1.723076923076923E-2</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" ref="C42:U55" si="0">D2*$X42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="49">
+        <v>28</v>
+      </c>
+      <c r="X42">
+        <f>W42/20</f>
+        <v>1.4</v>
+      </c>
+      <c r="AA42" s="49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" ref="B43:Q58" si="1">B3*$X43</f>
+        <v>0.29625000000000001</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.255</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="62">
+        <v>6</v>
+      </c>
+      <c r="X43">
+        <f t="shared" ref="X43:X66" si="2">W43/20</f>
+        <v>0.3</v>
+      </c>
+      <c r="AA43" s="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="62">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA44" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7058823529411767E-2</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-3</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="62">
+        <v>2</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA45" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63673469387755111</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21224489795918369</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="62">
+        <v>16</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA46" s="62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="62">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA47" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2173913043478265E-2</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="62">
+        <v>16</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA48" s="62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13675213675213677</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="62">
+        <v>10</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA49" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3953488372093023E-2</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4883720930232558E-3</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="62">
+        <v>6</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="AA50" s="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="62">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA51" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17551020408163265</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="62">
+        <v>4</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA52" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="62">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA53" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="1"/>
+        <v>1.714285714285714E-2</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142851E-3</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="62">
+        <v>6</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="AA54" s="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19565217391304349</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18260869565217391</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" ref="L55:U58" si="3">L15*$X55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="62">
+        <v>4</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA55" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0992366412213744E-2</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3969465648854966E-3</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="62">
+        <v>44</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA56" s="62">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30857142857142861</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="62">
+        <v>8</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA57" s="62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13887775551102205</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1543086172344686E-2</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="62">
+        <v>42</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="AA58" s="62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" ref="B59:U66" si="4">B19*$X59</f>
+        <v>9.5121951219512196E-2</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4146341463414637E-2</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="62">
+        <v>2</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA59" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="4"/>
+        <v>0.39346153846153847</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="4"/>
+        <v>0.19461538461538463</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="62">
+        <v>22</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA60" s="62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2244897959183675E-2</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="4"/>
+        <v>4.081632653061224E-3</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="62">
+        <v>4</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA61" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" si="4"/>
+        <v>7.2645739910313895E-2</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6322869955156947E-2</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="62">
+        <v>18</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA62" s="62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="62">
+        <v>8</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA63" s="62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4770642201834864E-2</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6513761467889909E-2</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="62">
+        <v>18</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA64" s="62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5185185185185197E-2</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="4"/>
+        <v>5.185185185185185E-2</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="62">
+        <v>2</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA65" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="50">
+        <v>4</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA66" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="66">
+        <f>SUM(B42:B66)</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="C68" s="67">
+        <f t="shared" ref="C68:U68" si="5">SUM(C42:C66)</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="D68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" t="s">
+        <v>197</v>
+      </c>
+      <c r="I71" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" t="s">
+        <v>192</v>
+      </c>
+      <c r="K71" t="s">
+        <v>193</v>
+      </c>
+      <c r="L71" t="s">
+        <v>194</v>
+      </c>
+      <c r="M71" t="s">
+        <v>195</v>
+      </c>
+      <c r="N71" t="s">
+        <v>196</v>
+      </c>
+      <c r="O71" t="s">
+        <v>197</v>
+      </c>
+      <c r="P71" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>192</v>
+      </c>
+      <c r="R71" t="s">
+        <v>193</v>
+      </c>
+      <c r="S71" t="s">
+        <v>194</v>
+      </c>
+      <c r="T71" t="s">
+        <v>195</v>
+      </c>
+      <c r="U71" t="s">
+        <v>196</v>
+      </c>
+      <c r="V71" t="s">
+        <v>197</v>
+      </c>
+      <c r="W71" t="s">
+        <v>191</v>
+      </c>
+      <c r="X71" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC71" s="69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+      <c r="J72">
+        <v>9</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+      <c r="L72">
+        <v>11</v>
+      </c>
+      <c r="M72">
+        <v>12</v>
+      </c>
+      <c r="N72">
+        <v>13</v>
+      </c>
+      <c r="O72">
+        <v>14</v>
+      </c>
+      <c r="P72">
+        <v>15</v>
+      </c>
+      <c r="Q72">
+        <v>16</v>
+      </c>
+      <c r="R72">
+        <v>17</v>
+      </c>
+      <c r="S72">
+        <v>18</v>
+      </c>
+      <c r="T72">
+        <v>19</v>
+      </c>
+      <c r="U72">
+        <v>20</v>
+      </c>
+      <c r="V72">
+        <v>21</v>
+      </c>
+      <c r="W72">
+        <v>22</v>
+      </c>
+      <c r="X72">
+        <v>23</v>
+      </c>
+      <c r="Y72">
+        <v>24</v>
+      </c>
+      <c r="Z72">
+        <v>25</v>
+      </c>
+      <c r="AA72">
+        <v>26</v>
+      </c>
+      <c r="AB72">
+        <v>27</v>
+      </c>
+      <c r="AC72" s="69">
+        <v>28</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
+      <c r="AI72">
+        <v>3</v>
+      </c>
+      <c r="AJ72">
+        <v>4</v>
+      </c>
+      <c r="AK72">
+        <v>5</v>
+      </c>
+      <c r="AL72">
+        <v>6</v>
+      </c>
+      <c r="AM72">
+        <v>7</v>
+      </c>
+      <c r="AN72">
+        <v>8</v>
+      </c>
+      <c r="AO72">
+        <v>9</v>
+      </c>
+      <c r="AP72">
+        <v>10</v>
+      </c>
+      <c r="AQ72">
+        <v>11</v>
+      </c>
+      <c r="AR72">
+        <v>12</v>
+      </c>
+      <c r="AS72">
+        <v>13</v>
+      </c>
+      <c r="AT72">
+        <v>14</v>
+      </c>
+      <c r="AU72">
+        <v>15</v>
+      </c>
+      <c r="AV72">
+        <v>16</v>
+      </c>
+      <c r="AW72">
+        <v>17</v>
+      </c>
+      <c r="AX72">
+        <v>18</v>
+      </c>
+      <c r="AY72">
+        <v>19</v>
+      </c>
+      <c r="AZ72">
+        <v>20</v>
+      </c>
+      <c r="BA72">
+        <v>21</v>
+      </c>
+      <c r="BB72">
+        <v>22</v>
+      </c>
+      <c r="BC72">
+        <v>23</v>
+      </c>
+      <c r="BD72">
+        <v>24</v>
+      </c>
+      <c r="BE72">
+        <v>25</v>
+      </c>
+      <c r="BF72">
+        <v>26</v>
+      </c>
+      <c r="BG72">
+        <v>27</v>
+      </c>
+      <c r="BH72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="C73">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="D73">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="69"/>
+    </row>
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="D74">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="E74">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="69"/>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="E75">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="F75">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="69"/>
+    </row>
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="F76">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="G76">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="69"/>
+    </row>
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="G77">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="H77">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="69"/>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="J78">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="K78">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC78" s="69"/>
+    </row>
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="K79">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="L79">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="L80">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="M80">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="M81">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="N81">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="N82">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="O82">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="Q83">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="R83">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="R84">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="S84">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="R85">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="S85">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="T85">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="S86">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="T86">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="U86">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="T87">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="U87">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="V87">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="X88">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="Y88">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="X89">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="Y89">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="Z89">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="Y90">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="Z90">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="AA90">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="Z91">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="AA91">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="AB91">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73"/>
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="73"/>
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="73"/>
+      <c r="T92" s="73"/>
+      <c r="U92" s="73"/>
+      <c r="V92" s="73"/>
+      <c r="W92" s="73"/>
+      <c r="X92" s="73"/>
+      <c r="Y92" s="73"/>
+      <c r="Z92" s="73"/>
+      <c r="AA92" s="73">
+        <f>$B$68</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="AB92" s="73">
+        <f>$C$68</f>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="AC92" s="73">
+        <f>$D$68</f>
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <f>$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <f>$F$68</f>
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <f>$G$68</f>
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <f>$H$68</f>
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <f>$I$68</f>
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <f>$J$68</f>
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <f>$K$68</f>
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <f>$L$68</f>
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <f>$M$68</f>
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <f>$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <f>$O$68</f>
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <f>$P$68</f>
+        <v>0</v>
+      </c>
+      <c r="AS92">
+        <f>$Q$68</f>
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <f>$R$68</f>
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <f>$S$68</f>
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <f>$T$68</f>
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <f>$U$68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93">
+        <f>AG94</f>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:AC93" si="6">AH94</f>
+        <v>0</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF94" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG94" s="70">
+        <f>SUM(AG73:AG92)</f>
+        <v>0</v>
+      </c>
+      <c r="AH94" s="71">
+        <f t="shared" ref="AH94:AZ94" si="7">SUM(AH73:AH92)</f>
+        <v>0</v>
+      </c>
+      <c r="AI94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU94" s="71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AV94" s="71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AW94" s="71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AX94" s="71">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AY94" s="71">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AZ94" s="71">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BA94" s="71">
@@ -17228,74 +24549,191 @@
       <c r="BD94" s="71">
         <v>0</v>
       </c>
-      <c r="BE94" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AC96" t="s">
+      <c r="BE94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BG94" s="71">
+        <v>0</v>
+      </c>
+      <c r="BH94" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95">
+        <f>SUM(B73:B93)</f>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:AC95" si="8">SUM(C73:C93)</f>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="8"/>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="8"/>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="8"/>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="8"/>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="8"/>
+        <v>3.1849598388794802</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="8"/>
+        <v>4.7941487365089506</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="8"/>
+        <v>1.6091888976294706</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="AF96" t="s">
         <v>201</v>
       </c>
-      <c r="AD96" t="s">
+      <c r="AG96" t="s">
         <v>202</v>
       </c>
-      <c r="AE96" t="s">
+      <c r="AH96" t="s">
         <v>203</v>
       </c>
-      <c r="AF96" t="s">
+      <c r="AI96" t="s">
         <v>204</v>
       </c>
-      <c r="AG96" t="s">
+      <c r="AJ96" t="s">
         <v>205</v>
       </c>
-      <c r="AH96" t="s">
+      <c r="AK96" t="s">
         <v>206</v>
       </c>
-      <c r="AI96" t="s">
+      <c r="AL96" t="s">
         <v>207</v>
       </c>
-      <c r="AJ96" t="s">
+      <c r="AM96" t="s">
         <v>208</v>
       </c>
-      <c r="AK96" t="s">
+      <c r="AN96" t="s">
         <v>209</v>
       </c>
-      <c r="AL96" t="s">
+      <c r="AO96" t="s">
         <v>210</v>
       </c>
-      <c r="AM96" t="s">
+      <c r="AP96" t="s">
         <v>211</v>
       </c>
-      <c r="AN96" t="s">
+      <c r="AQ96" t="s">
         <v>212</v>
       </c>
-      <c r="AO96" t="s">
+      <c r="AR96" t="s">
         <v>213</v>
       </c>
-      <c r="AP96" t="s">
+      <c r="AS96" t="s">
         <v>214</v>
       </c>
-      <c r="AQ96" t="s">
+      <c r="AT96" t="s">
         <v>215</v>
       </c>
-      <c r="AR96" t="s">
+      <c r="AU96" t="s">
         <v>216</v>
       </c>
-      <c r="AS96" t="s">
+      <c r="AV96" t="s">
         <v>217</v>
       </c>
-      <c r="AT96" t="s">
+      <c r="AW96" t="s">
         <v>218</v>
       </c>
-      <c r="AU96">
-        <v>0</v>
-      </c>
-      <c r="AV96">
-        <v>0</v>
-      </c>
-      <c r="AW96">
-        <v>0</v>
-      </c>
       <c r="AX96">
         <v>0</v>
       </c>
@@ -17320,71 +24758,186 @@
       <c r="BE96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="29:57" x14ac:dyDescent="0.2">
-      <c r="AC97" t="s">
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97">
+        <f>B95/$A$99</f>
+        <v>0.57908360706899642</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:D97" si="9">C95/$A$99</f>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="9"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="E97">
+        <f>E95/$A$99</f>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="F97">
+        <f>F95/$A$100</f>
+        <v>1.5980495788363169</v>
+      </c>
+      <c r="G97">
+        <f>G95/$A$100</f>
+        <v>0.53639629920982357</v>
+      </c>
+      <c r="H97">
+        <f>H95/$A$100</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ref="I97:Z97" si="10">I95/$A$99</f>
+        <v>0.57908360706899642</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ref="M97:O97" si="11">M95/$A$100</f>
+        <v>1.5980495788363169</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="11"/>
+        <v>0.53639629920982357</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f t="shared" ref="P97" si="12">P95/$A$99</f>
+        <v>0.57908360706899642</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="T97">
+        <f t="shared" ref="T97:V97" si="13">T95/$A$100</f>
+        <v>1.5980495788363169</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="13"/>
+        <v>0.53639629920982357</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <f t="shared" ref="W97" si="14">W95/$A$99</f>
+        <v>0.57908360706899642</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="10"/>
+        <v>0.87166340663799102</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" ref="AA97:AC97" si="15">AA95/$A$100</f>
+        <v>1.5980495788363169</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="15"/>
+        <v>0.53639629920982357</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" t="s">
         <v>199</v>
       </c>
-      <c r="AD97" t="s">
+      <c r="AG97" t="s">
         <v>219</v>
       </c>
-      <c r="AE97" t="s">
+      <c r="AH97" t="s">
         <v>220</v>
       </c>
-      <c r="AF97" t="s">
+      <c r="AI97" t="s">
         <v>221</v>
       </c>
-      <c r="AG97" t="s">
+      <c r="AJ97" t="s">
         <v>222</v>
       </c>
-      <c r="AH97" t="s">
+      <c r="AK97" t="s">
         <v>223</v>
       </c>
-      <c r="AI97" t="s">
+      <c r="AL97" t="s">
         <v>224</v>
       </c>
-      <c r="AJ97" t="s">
+      <c r="AM97" t="s">
         <v>225</v>
       </c>
-      <c r="AK97" t="s">
+      <c r="AN97" t="s">
         <v>226</v>
       </c>
-      <c r="AL97" t="s">
+      <c r="AO97" t="s">
         <v>227</v>
       </c>
-      <c r="AM97" t="s">
+      <c r="AP97" t="s">
         <v>228</v>
       </c>
-      <c r="AN97" t="s">
+      <c r="AQ97" t="s">
         <v>229</v>
       </c>
-      <c r="AO97" t="s">
+      <c r="AR97" t="s">
         <v>230</v>
       </c>
-      <c r="AP97" t="s">
+      <c r="AS97" t="s">
         <v>231</v>
       </c>
-      <c r="AQ97" t="s">
+      <c r="AT97" t="s">
         <v>232</v>
       </c>
-      <c r="AR97" t="s">
+      <c r="AU97" t="s">
         <v>233</v>
       </c>
-      <c r="AS97" t="s">
+      <c r="AV97" t="s">
         <v>234</v>
       </c>
-      <c r="AT97" t="s">
+      <c r="AW97" t="s">
         <v>235</v>
       </c>
-      <c r="AU97">
-        <v>0</v>
-      </c>
-      <c r="AV97">
-        <v>0</v>
-      </c>
-      <c r="AW97">
-        <v>0</v>
-      </c>
       <c r="AX97">
         <v>0</v>
       </c>
@@ -17409,71 +24962,74 @@
       <c r="BE97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="29:57" x14ac:dyDescent="0.2">
-      <c r="AC98" t="s">
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF98" t="s">
         <v>200</v>
       </c>
-      <c r="AD98" t="s">
+      <c r="AG98" t="s">
         <v>236</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="AH98" t="s">
         <v>237</v>
       </c>
-      <c r="AF98" t="s">
+      <c r="AI98" t="s">
         <v>238</v>
       </c>
-      <c r="AG98" t="s">
+      <c r="AJ98" t="s">
         <v>239</v>
       </c>
-      <c r="AH98" t="s">
+      <c r="AK98" t="s">
         <v>240</v>
       </c>
-      <c r="AI98" t="s">
+      <c r="AL98" t="s">
         <v>241</v>
       </c>
-      <c r="AJ98" t="s">
+      <c r="AM98" t="s">
         <v>242</v>
       </c>
-      <c r="AK98" t="s">
+      <c r="AN98" t="s">
         <v>243</v>
       </c>
-      <c r="AL98" t="s">
+      <c r="AO98" t="s">
         <v>244</v>
       </c>
-      <c r="AM98" t="s">
+      <c r="AP98" t="s">
         <v>245</v>
       </c>
-      <c r="AN98" t="s">
+      <c r="AQ98" t="s">
         <v>246</v>
       </c>
-      <c r="AO98" t="s">
+      <c r="AR98" t="s">
         <v>247</v>
       </c>
-      <c r="AP98" t="s">
+      <c r="AS98" t="s">
         <v>248</v>
       </c>
-      <c r="AQ98" t="s">
+      <c r="AT98" t="s">
         <v>249</v>
       </c>
-      <c r="AR98" t="s">
+      <c r="AU98" t="s">
         <v>250</v>
       </c>
-      <c r="AS98" t="s">
+      <c r="AV98" t="s">
         <v>251</v>
       </c>
-      <c r="AT98" t="s">
+      <c r="AW98" t="s">
         <v>252</v>
       </c>
-      <c r="AU98">
-        <v>0</v>
-      </c>
-      <c r="AV98">
-        <v>0</v>
-      </c>
-      <c r="AW98">
-        <v>0</v>
-      </c>
       <c r="AX98">
         <v>0</v>
       </c>
@@ -17497,6 +25053,133 @@
       </c>
       <c r="BE98">
         <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" t="s">
+        <v>286</v>
+      </c>
+      <c r="E102" t="s">
+        <v>287</v>
+      </c>
+      <c r="G102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C103" s="75">
+        <f>(SUM(B97:E97)+SUM(I97:L97)+SUM(P97:S97)+SUM(W97:Z97))/(16)</f>
+        <v>0.7985184567457424</v>
+      </c>
+      <c r="D103" s="75">
+        <f>(SUM(F97:H97)+SUM(M97:O97)+SUM(T97:V97)+SUM(AA97:AC97))/12</f>
+        <v>0.7114819593487135</v>
+      </c>
+      <c r="E103" s="75">
+        <f>C103*16/28+D103*12/28</f>
+        <v>0.76121710071844428</v>
+      </c>
+      <c r="G103">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>289</v>
+      </c>
+      <c r="E107" t="s">
+        <v>285</v>
+      </c>
+      <c r="F107" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108">
+        <v>5.5</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="E108" s="76">
+        <v>0.7985184567457424</v>
+      </c>
+      <c r="F108" s="76">
+        <v>0.7114819593487135</v>
+      </c>
+      <c r="G108" s="76">
+        <v>0.76121710071844428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109">
+        <v>2.4</v>
+      </c>
+      <c r="C109">
+        <v>1.3</v>
+      </c>
+      <c r="E109" s="76">
+        <v>0.79080885416647551</v>
+      </c>
+      <c r="F109" s="76">
+        <v>0.71454677927826193</v>
+      </c>
+      <c r="G109" s="76">
+        <v>0.75812510778581255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110">
+        <v>3.1</v>
+      </c>
+      <c r="C110">
+        <v>1.7</v>
+      </c>
+      <c r="E110" s="76">
+        <v>0.80448718132323904</v>
+      </c>
+      <c r="F110" s="76">
+        <v>0.70913827352023506</v>
+      </c>
+      <c r="G110" s="76">
+        <v>0.76362336369338024</v>
       </c>
     </row>
   </sheetData>
@@ -17505,15 +25188,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -17685,21 +25359,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17717,7 +25392,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17731,4 +25406,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AED115-8CD2-B04A-84C9-CE2221810B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52D1D2-0210-E14B-BAC1-1D77BDB757DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="299">
   <si>
     <t>Wards</t>
   </si>
@@ -915,14 +915,36 @@
   </si>
   <si>
     <t>2 sepc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuning </t>
+  </si>
+  <si>
+    <t>curent</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>12 groups</t>
+  </si>
+  <si>
+    <t>13 groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1265,7 +1287,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1343,6 +1365,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
@@ -1665,7 +1688,7 @@
   <dimension ref="A1:DA47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2011,88 +2034,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="28">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="J2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="K2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="L2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="M2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="N2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="O2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="P2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="Q2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="R2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="S2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="T2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="U2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="V2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="W2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="X2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="Y2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="Z2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="AA2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="AB2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="AC2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="AD2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="AE2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="AF2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="AG2" s="29">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="AH2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="AI2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="AJ2" s="29">
-        <v>24.5</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="AK2" s="49">
         <v>20</v>
@@ -2306,88 +2329,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Q3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="R3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="S3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AA3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AB3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AC3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AF3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AG3" s="15">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AH3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AI3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AJ3" s="15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AK3" s="50">
         <v>2</v>
@@ -8648,8 +8671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B305B3B2-E098-F04C-83CE-B18CE5C01F35}">
   <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11061,10 +11084,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A5F17-A83B-5047-A62F-D9F4A4FFE9EE}">
-  <dimension ref="A1:BH110"/>
+  <dimension ref="A1:BH148"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView topLeftCell="H108" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147:AI148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18115,6 +18138,989 @@
         <v>0.85348612559247861</v>
       </c>
     </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" t="s">
+        <v>294</v>
+      </c>
+      <c r="E121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s">
+        <v>296</v>
+      </c>
+      <c r="H122">
+        <f>$E$123</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="I122">
+        <f t="shared" ref="I122:K125" si="17">$E$123</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="L122">
+        <f>$E$124</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="M122">
+        <f t="shared" ref="M122:N125" si="18">$E$124</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>0.47</v>
+      </c>
+      <c r="E123">
+        <f>_xlfn.CEILING.MATH(B123*C123,0.1)</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="H123">
+        <f t="shared" ref="H123:H125" si="19">$E$123</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="L123">
+        <f t="shared" ref="L123:L125" si="20">$E$124</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124">
+        <v>24.5</v>
+      </c>
+      <c r="C124">
+        <f>C123</f>
+        <v>0.47</v>
+      </c>
+      <c r="E124">
+        <f>_xlfn.CEILING.MATH(B124*C124,0.1)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="19"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="20"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="19"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="17"/>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="20"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>290</v>
+      </c>
+      <c r="B126">
+        <v>5.5</v>
+      </c>
+      <c r="C126">
+        <v>0.54</v>
+      </c>
+      <c r="E126">
+        <f>_xlfn.CEILING.MATH(B126*C126,0.1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>289</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <f>C126</f>
+        <v>0.54</v>
+      </c>
+      <c r="E127">
+        <f>_xlfn.CEILING.MATH(B127*C127,0.1)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="H127">
+        <f>$E$126</f>
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <f t="shared" ref="I127:L130" si="21">$E$126</f>
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <f>$E$127</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="M127">
+        <f t="shared" ref="M127:N130" si="22">$E$127</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <f t="shared" ref="H128:H130" si="23">$E$126</f>
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <f t="shared" ref="L128:L130" si="24">$E$127</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="24"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="24"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>293</v>
+      </c>
+      <c r="C135" t="s">
+        <v>294</v>
+      </c>
+      <c r="E135" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" t="s">
+        <v>296</v>
+      </c>
+      <c r="H136" s="77">
+        <f>$E$137</f>
+        <v>13.5</v>
+      </c>
+      <c r="I136" s="77">
+        <f t="shared" ref="I136:K139" si="25">$E$137</f>
+        <v>13.5</v>
+      </c>
+      <c r="J136" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="K136" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="L136" s="77">
+        <f>$E$138</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="M136" s="77">
+        <f t="shared" ref="M136:N139" si="26">$E$138</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="N136" s="77">
+        <f t="shared" si="26"/>
+        <v>11.100000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>0.45</v>
+      </c>
+      <c r="E137">
+        <f>_xlfn.CEILING.MATH(B137*C137,0.1)</f>
+        <v>13.5</v>
+      </c>
+      <c r="H137" s="77">
+        <f t="shared" ref="H137:H139" si="27">$E$137</f>
+        <v>13.5</v>
+      </c>
+      <c r="I137" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="J137" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="K137" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="L137" s="77">
+        <f t="shared" ref="L137:L139" si="28">$E$138</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="M137" s="77">
+        <f t="shared" si="26"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="N137" s="77">
+        <f t="shared" si="26"/>
+        <v>11.100000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>289</v>
+      </c>
+      <c r="B138">
+        <v>24.5</v>
+      </c>
+      <c r="C138">
+        <f>C137</f>
+        <v>0.45</v>
+      </c>
+      <c r="E138">
+        <f>_xlfn.CEILING.MATH(B138*C138,0.1)</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="H138" s="77">
+        <f t="shared" si="27"/>
+        <v>13.5</v>
+      </c>
+      <c r="I138" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="J138" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="K138" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="L138" s="77">
+        <f t="shared" si="28"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="M138" s="77">
+        <f t="shared" si="26"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="N138" s="77">
+        <f t="shared" si="26"/>
+        <v>11.100000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" t="s">
+        <v>44</v>
+      </c>
+      <c r="H139" s="77">
+        <f t="shared" si="27"/>
+        <v>13.5</v>
+      </c>
+      <c r="I139" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="J139" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="K139" s="77">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="L139" s="77">
+        <f t="shared" si="28"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="M139" s="77">
+        <f t="shared" si="26"/>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="N139" s="77">
+        <f t="shared" si="26"/>
+        <v>11.100000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>290</v>
+      </c>
+      <c r="B140">
+        <v>5.5</v>
+      </c>
+      <c r="C140">
+        <v>0.49</v>
+      </c>
+      <c r="E140">
+        <f>_xlfn.CEILING.MATH(B140*C140,0.1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="77"/>
+      <c r="M140" s="77"/>
+      <c r="N140" s="77"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>289</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <f>C140</f>
+        <v>0.49</v>
+      </c>
+      <c r="E141">
+        <f>_xlfn.CEILING.MATH(B141*C141,0.1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H141" s="77">
+        <f>$E$140</f>
+        <v>2.7</v>
+      </c>
+      <c r="I141" s="77">
+        <f t="shared" ref="I141:K144" si="29">$E$140</f>
+        <v>2.7</v>
+      </c>
+      <c r="J141" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="K141" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="L141" s="77">
+        <f>$E$141</f>
+        <v>1.5</v>
+      </c>
+      <c r="M141" s="77">
+        <f t="shared" ref="M141:N144" si="30">$E$141</f>
+        <v>1.5</v>
+      </c>
+      <c r="N141" s="77">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H142" s="77">
+        <f t="shared" ref="H142:H144" si="31">$E$140</f>
+        <v>2.7</v>
+      </c>
+      <c r="I142" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="J142" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="K142" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="L142" s="77">
+        <f t="shared" ref="L142:L144" si="32">$E$141</f>
+        <v>1.5</v>
+      </c>
+      <c r="M142" s="77">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+      <c r="N142" s="77">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H143" s="77">
+        <f t="shared" si="31"/>
+        <v>2.7</v>
+      </c>
+      <c r="I143" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="J143" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="K143" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="L143" s="77">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
+      <c r="M143" s="77">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+      <c r="N143" s="77">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H144" s="77">
+        <f t="shared" si="31"/>
+        <v>2.7</v>
+      </c>
+      <c r="I144" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="J144" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="K144" s="77">
+        <f t="shared" si="29"/>
+        <v>2.7</v>
+      </c>
+      <c r="L144" s="77">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
+      <c r="M144" s="77">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+      <c r="N144" s="77">
+        <f t="shared" si="30"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
+      </c>
+      <c r="L146">
+        <v>5</v>
+      </c>
+      <c r="M146">
+        <v>6</v>
+      </c>
+      <c r="N146">
+        <v>7</v>
+      </c>
+      <c r="O146">
+        <v>8</v>
+      </c>
+      <c r="P146">
+        <v>9</v>
+      </c>
+      <c r="Q146">
+        <v>10</v>
+      </c>
+      <c r="R146">
+        <v>11</v>
+      </c>
+      <c r="S146">
+        <v>12</v>
+      </c>
+      <c r="T146">
+        <v>13</v>
+      </c>
+      <c r="U146">
+        <v>14</v>
+      </c>
+      <c r="V146">
+        <v>15</v>
+      </c>
+      <c r="W146">
+        <v>16</v>
+      </c>
+      <c r="X146">
+        <v>17</v>
+      </c>
+      <c r="Y146">
+        <v>18</v>
+      </c>
+      <c r="Z146">
+        <v>19</v>
+      </c>
+      <c r="AA146">
+        <v>20</v>
+      </c>
+      <c r="AB146">
+        <v>21</v>
+      </c>
+      <c r="AC146">
+        <v>22</v>
+      </c>
+      <c r="AD146">
+        <v>23</v>
+      </c>
+      <c r="AE146">
+        <v>24</v>
+      </c>
+      <c r="AF146">
+        <v>25</v>
+      </c>
+      <c r="AG146">
+        <v>26</v>
+      </c>
+      <c r="AH146">
+        <v>27</v>
+      </c>
+      <c r="AI146">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>281</v>
+      </c>
+      <c r="H147" s="77">
+        <f>H122+H136</f>
+        <v>27.6</v>
+      </c>
+      <c r="I147" s="77">
+        <f t="shared" ref="I147:N147" si="33">I122+I136</f>
+        <v>27.6</v>
+      </c>
+      <c r="J147" s="77">
+        <f t="shared" si="33"/>
+        <v>27.6</v>
+      </c>
+      <c r="K147" s="77">
+        <f t="shared" si="33"/>
+        <v>27.6</v>
+      </c>
+      <c r="L147" s="77">
+        <f t="shared" si="33"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="M147" s="77">
+        <f t="shared" si="33"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="N147" s="77">
+        <f t="shared" si="33"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="O147">
+        <f>H147</f>
+        <v>27.6</v>
+      </c>
+      <c r="P147">
+        <f t="shared" ref="P147:AE148" si="34">I147</f>
+        <v>27.6</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="34"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="34"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="34"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="X147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="34"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="AA147">
+        <f t="shared" si="34"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="AB147">
+        <f t="shared" si="34"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="AC147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="AD147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="AE147">
+        <f t="shared" si="34"/>
+        <v>27.6</v>
+      </c>
+      <c r="AF147">
+        <f t="shared" ref="AF147:AI148" si="35">Y147</f>
+        <v>27.6</v>
+      </c>
+      <c r="AG147">
+        <f t="shared" si="35"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="AH147">
+        <f t="shared" si="35"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="AI147">
+        <f t="shared" si="35"/>
+        <v>22.700000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H148" s="77">
+        <f>H127+H141</f>
+        <v>5.7</v>
+      </c>
+      <c r="I148" s="77">
+        <f t="shared" ref="I148:N148" si="36">I127+I141</f>
+        <v>5.7</v>
+      </c>
+      <c r="J148" s="77">
+        <f t="shared" si="36"/>
+        <v>5.7</v>
+      </c>
+      <c r="K148" s="77">
+        <f t="shared" si="36"/>
+        <v>5.7</v>
+      </c>
+      <c r="L148" s="77">
+        <f t="shared" si="36"/>
+        <v>3.2</v>
+      </c>
+      <c r="M148" s="77">
+        <f t="shared" si="36"/>
+        <v>3.2</v>
+      </c>
+      <c r="N148" s="77">
+        <f t="shared" si="36"/>
+        <v>3.2</v>
+      </c>
+      <c r="O148">
+        <f>H148</f>
+        <v>5.7</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="34"/>
+        <v>3.2</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="34"/>
+        <v>3.2</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="34"/>
+        <v>3.2</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="34"/>
+        <v>3.2</v>
+      </c>
+      <c r="AA148">
+        <f t="shared" si="34"/>
+        <v>3.2</v>
+      </c>
+      <c r="AB148">
+        <f t="shared" si="34"/>
+        <v>3.2</v>
+      </c>
+      <c r="AC148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="AD148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="AE148">
+        <f t="shared" si="34"/>
+        <v>5.7</v>
+      </c>
+      <c r="AF148">
+        <f t="shared" si="35"/>
+        <v>5.7</v>
+      </c>
+      <c r="AG148">
+        <f t="shared" si="35"/>
+        <v>3.2</v>
+      </c>
+      <c r="AH148">
+        <f t="shared" si="35"/>
+        <v>3.2</v>
+      </c>
+      <c r="AI148">
+        <f t="shared" si="35"/>
+        <v>3.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25188,6 +26194,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -25359,35 +26380,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25409,9 +26405,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/input_output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/Master/GitHub Repository/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52D1D2-0210-E14B-BAC1-1D77BDB757DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC3AF0-0B8C-344C-B77E-9363AEC8A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="BT7" sqref="BT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="BT5" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU5" s="61"/>
       <c r="BV5" s="8">
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="BT6" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU6" s="61"/>
       <c r="BV6" s="8">
@@ -18356,7 +18356,7 @@
         <v>3</v>
       </c>
       <c r="I127">
-        <f t="shared" ref="I127:L130" si="21">$E$126</f>
+        <f t="shared" ref="I127:K130" si="21">$E$126</f>
         <v>3</v>
       </c>
       <c r="J127">
@@ -26194,21 +26194,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -26380,10 +26365,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26405,19 +26415,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/Master/GitHub Repository/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC3AF0-0B8C-344C-B77E-9363AEC8A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02695F78-0AE9-F24E-B419-06DA0BF7964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="BT7" sqref="BT7"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AW46" sqref="AW46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26194,6 +26194,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -26365,12 +26371,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26381,6 +26381,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26398,22 +26414,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>

--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/Master/GitHub Repository/master2022/input_output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\oyviasp\.profil\stud\datasal\Desktop\master2022\input_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02695F78-0AE9-F24E-B419-06DA0BF7964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A17A0-7786-4757-A06D-2E74A87DC581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29100" windowHeight="8325" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="IC" sheetId="5" r:id="rId4"/>
     <sheet name="MCcalculations" sheetId="16" r:id="rId5"/>
     <sheet name="ICcalculations" sheetId="18" r:id="rId6"/>
+    <sheet name="BED_OCC" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="301">
   <si>
     <t>Wards</t>
   </si>
@@ -936,6 +937,12 @@
   </si>
   <si>
     <t>13 groups</t>
+  </si>
+  <si>
+    <t>HALF</t>
+  </si>
+  <si>
+    <t>FULL</t>
   </si>
 </sst>
 </file>
@@ -946,7 +953,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1373,7 +1380,7 @@
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
-    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1687,29 +1694,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AW46" sqref="AW46"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:AJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" customWidth="1"/>
-    <col min="9" max="36" width="4.6640625" customWidth="1"/>
+    <col min="2" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="2.875" customWidth="1"/>
+    <col min="9" max="36" width="4.625" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
     <col min="38" max="38" width="4.5" customWidth="1"/>
-    <col min="39" max="39" width="11.1640625" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" customWidth="1"/>
-    <col min="41" max="41" width="13.1640625" customWidth="1"/>
+    <col min="39" max="39" width="11.125" customWidth="1"/>
+    <col min="40" max="40" width="12.625" customWidth="1"/>
+    <col min="41" max="41" width="13.125" customWidth="1"/>
     <col min="42" max="42" width="3.5" customWidth="1"/>
-    <col min="43" max="43" width="8.83203125" customWidth="1"/>
+    <col min="43" max="43" width="8.875" customWidth="1"/>
     <col min="44" max="71" width="3.5" customWidth="1"/>
-    <col min="72" max="72" width="10.83203125" customWidth="1"/>
-    <col min="74" max="74" width="4.33203125" customWidth="1"/>
-    <col min="78" max="105" width="8.83203125" customWidth="1"/>
+    <col min="72" max="72" width="10.875" customWidth="1"/>
+    <col min="74" max="74" width="4.375" customWidth="1"/>
+    <col min="78" max="105" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" s="3" customFormat="1" ht="16.5" thickBot="1">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:105" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" ht="16.5" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="31">
         <v>0.1</v>
@@ -2034,88 +2041,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="28">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="J2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="K2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="L2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="M2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="N2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="O2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="P2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="R2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="S2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="T2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="U2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="V2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="W2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="X2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="29">
-        <v>27.6</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="29">
-        <v>22.700000000000003</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="49">
         <v>20</v>
@@ -2317,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:105" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" ht="16.5" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -2329,88 +2336,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="J3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="K3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="M3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="R3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="S3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="T3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="U3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="V3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="W3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="X3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AE3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="15">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AH3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AI3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="15">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="50">
         <v>2</v>
@@ -2612,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:105">
       <c r="A4" s="2"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -2760,7 +2767,7 @@
       </c>
       <c r="BX4" s="2"/>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:105">
       <c r="A5" s="2"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -2908,7 +2915,7 @@
       </c>
       <c r="BX5" s="2"/>
     </row>
-    <row r="6" spans="1:105" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" ht="16.5" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -3056,7 +3063,7 @@
       </c>
       <c r="BX6" s="2"/>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:105">
       <c r="A7" s="2"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
@@ -3144,7 +3151,7 @@
       </c>
       <c r="BX7" s="2"/>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:105">
       <c r="A8" s="2"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -3232,7 +3239,7 @@
       </c>
       <c r="BX8" s="2"/>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:105">
       <c r="A9" s="2"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -3320,7 +3327,7 @@
       </c>
       <c r="BX9" s="2"/>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:105">
       <c r="A10" s="2"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -3408,7 +3415,7 @@
       </c>
       <c r="BX10" s="2"/>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:105">
       <c r="A11" s="2"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -3496,7 +3503,7 @@
       </c>
       <c r="BX11" s="2"/>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:105">
       <c r="A12" s="2"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -3584,7 +3591,7 @@
       </c>
       <c r="BX12" s="2"/>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:105">
       <c r="A13" s="2"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -3672,7 +3679,7 @@
       </c>
       <c r="BX13" s="2"/>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:105">
       <c r="A14" s="2"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -3760,7 +3767,7 @@
       </c>
       <c r="BX14" s="2"/>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:105">
       <c r="A15" s="2"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -3848,7 +3855,7 @@
       </c>
       <c r="BX15" s="2"/>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:105">
       <c r="A16" s="2"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -3936,7 +3943,7 @@
       </c>
       <c r="BX16" s="2"/>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:76">
       <c r="A17" s="2"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -4024,7 +4031,7 @@
       </c>
       <c r="BX17" s="2"/>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:76">
       <c r="A18" s="2"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -4112,7 +4119,7 @@
       </c>
       <c r="BX18" s="2"/>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:76">
       <c r="A19" s="2"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -4200,7 +4207,7 @@
       </c>
       <c r="BX19" s="2"/>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:76">
       <c r="A20" s="2"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -4288,7 +4295,7 @@
       </c>
       <c r="BX20" s="2"/>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:76">
       <c r="A21" s="2"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -4376,7 +4383,7 @@
       </c>
       <c r="BX21" s="2"/>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:76">
       <c r="A22" s="2"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -4464,7 +4471,7 @@
       </c>
       <c r="BX22" s="2"/>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:76">
       <c r="A23" s="2"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -4552,7 +4559,7 @@
       </c>
       <c r="BX23" s="2"/>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:76">
       <c r="A24" s="2"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -4640,7 +4647,7 @@
       </c>
       <c r="BX24" s="2"/>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:76">
       <c r="A25" s="2"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -4728,7 +4735,7 @@
       </c>
       <c r="BX25" s="2"/>
     </row>
-    <row r="26" spans="1:76" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" ht="16.5" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
@@ -4816,7 +4823,7 @@
       </c>
       <c r="BX26" s="2"/>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:76">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -4896,7 +4903,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:76">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -4976,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:76" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" ht="16.5" thickBot="1">
       <c r="AT29" s="61"/>
       <c r="AU29" s="61"/>
       <c r="AV29" s="61"/>
@@ -4987,92 +4994,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:76">
       <c r="AT30" s="61"/>
       <c r="AU30" s="61"/>
       <c r="AV30" s="61"/>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:76">
       <c r="AT31" s="61"/>
       <c r="AU31" s="61"/>
       <c r="AV31" s="61"/>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:76">
       <c r="AT32" s="61"/>
       <c r="AU32" s="61"/>
       <c r="AV32" s="61"/>
     </row>
-    <row r="33" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="46:48">
       <c r="AT33" s="61"/>
       <c r="AU33" s="61"/>
       <c r="AV33" s="61"/>
     </row>
-    <row r="34" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="46:48">
       <c r="AT34" s="61"/>
       <c r="AU34" s="61"/>
       <c r="AV34" s="61"/>
     </row>
-    <row r="35" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="46:48">
       <c r="AT35" s="61"/>
       <c r="AU35" s="61"/>
       <c r="AV35" s="61"/>
     </row>
-    <row r="36" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="46:48">
       <c r="AT36" s="61"/>
       <c r="AU36" s="61"/>
       <c r="AV36" s="61"/>
     </row>
-    <row r="37" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="46:48">
       <c r="AT37" s="61"/>
       <c r="AU37" s="61"/>
       <c r="AV37" s="61"/>
     </row>
-    <row r="38" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="46:48">
       <c r="AT38" s="61"/>
       <c r="AU38" s="61"/>
       <c r="AV38" s="61"/>
     </row>
-    <row r="39" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="46:48">
       <c r="AT39" s="61"/>
       <c r="AU39" s="61"/>
       <c r="AV39" s="61"/>
     </row>
-    <row r="40" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="46:48">
       <c r="AT40" s="61"/>
       <c r="AU40" s="61"/>
       <c r="AV40" s="61"/>
     </row>
-    <row r="41" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="46:48">
       <c r="AT41" s="61"/>
       <c r="AU41" s="61"/>
       <c r="AV41" s="61"/>
     </row>
-    <row r="42" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="46:48">
       <c r="AT42" s="61"/>
       <c r="AU42" s="61"/>
       <c r="AV42" s="61"/>
     </row>
-    <row r="43" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="46:48">
       <c r="AT43" s="61"/>
       <c r="AU43" s="61"/>
       <c r="AV43" s="61"/>
     </row>
-    <row r="44" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="46:48">
       <c r="AT44" s="61"/>
       <c r="AU44" s="61"/>
       <c r="AV44" s="61"/>
     </row>
-    <row r="45" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="46:48">
       <c r="AT45" s="61"/>
       <c r="AU45" s="61"/>
       <c r="AV45" s="61"/>
     </row>
-    <row r="46" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="46:48">
       <c r="AT46" s="61"/>
       <c r="AU46" s="61"/>
       <c r="AV46" s="61"/>
     </row>
-    <row r="47" spans="46:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="46:48">
       <c r="AT47" s="61"/>
       <c r="AU47" s="61"/>
       <c r="AV47" s="61"/>
@@ -5090,22 +5097,22 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="7" max="31" width="4" customWidth="1"/>
-    <col min="32" max="32" width="4.33203125" customWidth="1"/>
-    <col min="34" max="58" width="5.1640625" customWidth="1"/>
-    <col min="59" max="65" width="3.83203125" customWidth="1"/>
-    <col min="66" max="66" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.375" customWidth="1"/>
+    <col min="34" max="58" width="5.125" customWidth="1"/>
+    <col min="59" max="65" width="3.875" customWidth="1"/>
+    <col min="66" max="66" width="4.625" customWidth="1"/>
     <col min="67" max="67" width="6" customWidth="1"/>
-    <col min="68" max="68" width="4.33203125" customWidth="1"/>
+    <col min="68" max="68" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:77" ht="16.5" thickBot="1">
       <c r="B1" s="6" t="s">
         <v>180</v>
       </c>
@@ -5290,7 +5297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:77">
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
@@ -5475,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:77" ht="16.5" thickBot="1">
       <c r="B3" s="39" t="s">
         <v>5</v>
       </c>
@@ -5660,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:77">
       <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:77">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
@@ -5874,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:77" ht="16.5" thickBot="1">
       <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
@@ -5981,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:77">
       <c r="B7" s="39" t="s">
         <v>12</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:77" ht="16.5" thickBot="1">
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -6009,92 +6016,92 @@
       <c r="BX8" s="44"/>
       <c r="BY8" s="44"/>
     </row>
-    <row r="9" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:77">
       <c r="D9" s="46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:77">
       <c r="D10" s="47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:77">
       <c r="D11" s="47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:77">
       <c r="D12" s="47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:77">
       <c r="D13" s="47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:77">
       <c r="D14" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:77">
       <c r="D15" s="47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:77">
       <c r="D16" s="47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4">
       <c r="D17" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4">
       <c r="D18" s="47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4">
       <c r="D19" s="47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4">
       <c r="D20" s="47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4">
       <c r="D21" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4">
       <c r="D22" s="47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4">
       <c r="D23" s="47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4">
       <c r="D24" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4">
       <c r="D25" s="47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="16.5" thickBot="1">
       <c r="D26" s="48" t="s">
         <v>116</v>
       </c>
@@ -6113,9 +6120,9 @@
       <selection activeCell="A32" sqref="A32:BE102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -6180,7 +6187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -6245,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -6310,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -6375,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -6440,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -6505,7 +6512,7 @@
         <v>5.1020408163265302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -6635,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -6700,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -6765,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -6830,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -6895,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -6960,7 +6967,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -7090,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -7155,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -7220,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -7285,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -7350,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -7415,7 +7422,7 @@
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -7480,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -7545,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -7610,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -7675,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -7740,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="16.5" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -7805,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -7829,7 +7836,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -7853,7 +7860,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7876,7 +7883,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7899,7 +7906,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7922,7 +7929,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7945,7 +7952,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7968,7 +7975,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7991,7 +7998,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8014,7 +8021,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8037,7 +8044,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -8060,7 +8067,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8083,7 +8090,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -8106,7 +8113,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -8129,7 +8136,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -8152,7 +8159,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -8175,7 +8182,7 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -8198,7 +8205,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -8221,7 +8228,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -8244,7 +8251,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8267,7 +8274,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -8290,7 +8297,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -8313,7 +8320,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -8336,7 +8343,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -8359,7 +8366,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -8382,7 +8389,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -8405,7 +8412,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -8428,7 +8435,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -8451,7 +8458,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -8474,7 +8481,7 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -8497,7 +8504,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -8520,7 +8527,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8543,7 +8550,7 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8566,7 +8573,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8589,7 +8596,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8612,7 +8619,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8635,7 +8642,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8675,9 +8682,9 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="16.5" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -8765,7 +8772,7 @@
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -8853,7 +8860,7 @@
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -8941,7 +8948,7 @@
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -9029,7 +9036,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -9117,7 +9124,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -9205,7 +9212,7 @@
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -9293,7 +9300,7 @@
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -9381,7 +9388,7 @@
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -9469,7 +9476,7 @@
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -9557,7 +9564,7 @@
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -9645,7 +9652,7 @@
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -9733,7 +9740,7 @@
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -9821,7 +9828,7 @@
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -9909,7 +9916,7 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -9997,7 +10004,7 @@
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -10085,7 +10092,7 @@
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -10173,7 +10180,7 @@
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -10261,7 +10268,7 @@
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -10349,7 +10356,7 @@
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -10437,7 +10444,7 @@
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -10525,7 +10532,7 @@
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -10613,7 +10620,7 @@
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -10701,7 +10708,7 @@
       <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -10789,7 +10796,7 @@
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -10877,7 +10884,7 @@
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
     </row>
-    <row r="26" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="16.5" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -10965,7 +10972,7 @@
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -10983,7 +10990,7 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -11001,7 +11008,7 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45">
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -11019,7 +11026,7 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45">
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -11037,7 +11044,7 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45">
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -11055,7 +11062,7 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45">
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -11090,12 +11097,12 @@
       <selection activeCell="H147" sqref="H147:AI148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -11160,7 +11167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -11225,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -11290,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -11355,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -11420,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -11485,7 +11492,7 @@
         <v>5.1020408163265302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -11550,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -11615,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -11680,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -11745,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -11810,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -11875,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -11940,7 +11947,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -12005,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -12070,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -12135,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -12200,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -12265,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -12330,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -12395,7 +12402,7 @@
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -12460,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -12525,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -12590,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -12655,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -12720,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="16.5" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -12785,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -12809,7 +12816,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -12833,7 +12840,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -12856,7 +12863,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -12879,7 +12886,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -12902,7 +12909,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="41" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="16.5" thickBot="1">
       <c r="W41" t="s">
         <v>188</v>
       </c>
@@ -12910,7 +12917,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -13005,7 +13012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -13100,7 +13107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -13195,7 +13202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -13290,7 +13297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -13385,7 +13392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -13480,7 +13487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -13575,7 +13582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -13670,7 +13677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -13765,7 +13772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -13860,7 +13867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -13955,7 +13962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -14050,7 +14057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -14145,7 +14152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -14240,7 +14247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -14335,7 +14342,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14430,7 +14437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -14525,7 +14532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
@@ -14620,7 +14627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26">
       <c r="A60" s="4" t="s">
         <v>105</v>
       </c>
@@ -14715,7 +14722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26">
       <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
@@ -14810,7 +14817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -14905,7 +14912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -15000,7 +15007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -15095,7 +15102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -15190,7 +15197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" ht="16.5" thickBot="1">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -15285,8 +15292,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" ht="16.5" thickBot="1"/>
+    <row r="68" spans="1:60" ht="16.5" thickBot="1">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -15371,7 +15378,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:60">
       <c r="B71" t="s">
         <v>191</v>
       </c>
@@ -15457,7 +15464,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:60">
       <c r="B72">
         <v>1</v>
       </c>
@@ -15627,7 +15634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:60">
       <c r="B73">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15710,7 +15717,7 @@
       </c>
       <c r="AC73" s="69"/>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:60">
       <c r="C74">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15793,7 +15800,7 @@
       </c>
       <c r="AC74" s="69"/>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:60">
       <c r="D75">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15876,7 +15883,7 @@
       </c>
       <c r="AC75" s="69"/>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:60">
       <c r="E76">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15959,7 +15966,7 @@
       </c>
       <c r="AC76" s="69"/>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:60">
       <c r="F77">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16042,7 +16049,7 @@
       </c>
       <c r="AC77" s="69"/>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:60">
       <c r="I78">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16125,7 +16132,7 @@
       </c>
       <c r="AC78" s="69"/>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:60">
       <c r="J79">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16207,7 +16214,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:60">
       <c r="K80">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16289,7 +16296,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:60">
       <c r="L81">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16371,7 +16378,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:60">
       <c r="M82">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16453,7 +16460,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:60">
       <c r="P83">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16535,7 +16542,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:60">
       <c r="Q84">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16617,7 +16624,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:60">
       <c r="R85">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16699,7 +16706,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:60">
       <c r="S86">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16781,7 +16788,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:60">
       <c r="T87">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16863,7 +16870,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:60">
       <c r="W88">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16945,7 +16952,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:60">
       <c r="X89">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -17027,7 +17034,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:60">
       <c r="Y90">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -17109,7 +17116,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:60">
       <c r="Z91">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -17191,7 +17198,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:60">
       <c r="B92" s="73"/>
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
@@ -17298,7 +17305,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:60" ht="16.5" thickBot="1">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -17415,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:60" ht="16.5" thickBot="1">
       <c r="AF94" t="s">
         <v>198</v>
       </c>
@@ -17524,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:60">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -17641,7 +17648,7 @@
         <v>16.061181057689225</v>
       </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:60">
       <c r="AF96" t="s">
         <v>201</v>
       </c>
@@ -17730,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:60">
       <c r="A97" t="s">
         <v>283</v>
       </c>
@@ -17934,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:60">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -18026,17 +18033,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:60">
       <c r="A99">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:60">
       <c r="A100">
         <v>24.5</v>
       </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:60">
       <c r="C102" t="s">
         <v>285</v>
       </c>
@@ -18047,7 +18054,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:60">
       <c r="C103" s="75">
         <f>(SUM(B97:E97)+SUM(I97:L97)+SUM(P97:S97)+SUM(W97:Z97))/(16)</f>
         <v>0.82352703252328951</v>
@@ -18061,7 +18068,7 @@
         <v>0.85328616598666263</v>
       </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:60">
       <c r="B107" t="s">
         <v>290</v>
       </c>
@@ -18078,7 +18085,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:60">
       <c r="A108" t="s">
         <v>288</v>
       </c>
@@ -18098,7 +18105,7 @@
         <v>0.85328616598666263</v>
       </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:60">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -18118,7 +18125,7 @@
         <v>0.85322557172891611</v>
       </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:60">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -18138,17 +18145,17 @@
         <v>0.85348612559247861</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14">
       <c r="B121" t="s">
         <v>293</v>
       </c>
@@ -18159,7 +18166,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14">
       <c r="B122" t="s">
         <v>33</v>
       </c>
@@ -18198,7 +18205,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>290</v>
       </c>
@@ -18241,7 +18248,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>289</v>
       </c>
@@ -18285,7 +18292,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="B125" t="s">
         <v>44</v>
       </c>
@@ -18321,7 +18328,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>290</v>
       </c>
@@ -18336,7 +18343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>289</v>
       </c>
@@ -18380,7 +18387,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="H128">
         <f t="shared" ref="H128:H130" si="23">$E$126</f>
         <v>3</v>
@@ -18410,7 +18417,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="H129">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -18440,7 +18447,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="H130">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -18470,12 +18477,12 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="B135" t="s">
         <v>293</v>
       </c>
@@ -18486,7 +18493,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="B136" t="s">
         <v>33</v>
       </c>
@@ -18525,7 +18532,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -18568,7 +18575,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>289</v>
       </c>
@@ -18612,7 +18619,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="B139" t="s">
         <v>44</v>
       </c>
@@ -18648,7 +18655,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>290</v>
       </c>
@@ -18670,7 +18677,7 @@
       <c r="M140" s="77"/>
       <c r="N140" s="77"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -18714,7 +18721,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14">
       <c r="H142" s="77">
         <f t="shared" ref="H142:H144" si="31">$E$140</f>
         <v>2.7</v>
@@ -18744,7 +18751,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
       <c r="H143" s="77">
         <f t="shared" si="31"/>
         <v>2.7</v>
@@ -18774,7 +18781,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14">
       <c r="H144" s="77">
         <f t="shared" si="31"/>
         <v>2.7</v>
@@ -18804,7 +18811,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35">
       <c r="H146">
         <v>1</v>
       </c>
@@ -18890,7 +18897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35">
       <c r="A147" t="s">
         <v>281</v>
       </c>
@@ -19007,7 +19014,7 @@
         <v>22.700000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35">
       <c r="H148" s="77">
         <f>H127+H141</f>
         <v>5.7</v>
@@ -19134,12 +19141,12 @@
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -19204,7 +19211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -19269,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -19334,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -19399,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -19464,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -19529,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -19594,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -19659,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -19724,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -19789,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -19854,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -19919,7 +19926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -19984,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -20049,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -20114,7 +20121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -20179,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -20244,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -20309,7 +20316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -20374,7 +20381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -20439,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -20504,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -20569,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -20634,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -20699,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -20764,7 +20771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="16.5" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -20829,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -20853,7 +20860,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -20877,7 +20884,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -20900,7 +20907,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -20923,7 +20930,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -20946,7 +20953,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="16.5" thickBot="1">
       <c r="W41" t="s">
         <v>188</v>
       </c>
@@ -20954,7 +20961,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -21049,7 +21056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -21144,7 +21151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -21239,7 +21246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -21334,7 +21341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -21429,7 +21436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -21524,7 +21531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -21619,7 +21626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -21714,7 +21721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -21809,7 +21816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -21904,7 +21911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -21999,7 +22006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -22094,7 +22101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -22189,7 +22196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -22284,7 +22291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -22379,7 +22386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -22474,7 +22481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -22569,7 +22576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
@@ -22664,7 +22671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60" s="4" t="s">
         <v>105</v>
       </c>
@@ -22759,7 +22766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
@@ -22854,7 +22861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -22949,7 +22956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -23044,7 +23051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -23139,7 +23146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -23234,7 +23241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" ht="16.5" thickBot="1">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -23329,8 +23336,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" ht="16.5" thickBot="1"/>
+    <row r="68" spans="1:60" ht="16.5" thickBot="1">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -23415,7 +23422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:60">
       <c r="B71" t="s">
         <v>191</v>
       </c>
@@ -23501,7 +23508,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:60">
       <c r="B72">
         <v>1</v>
       </c>
@@ -23671,7 +23678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:60">
       <c r="B73">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -23754,7 +23761,7 @@
       </c>
       <c r="AC73" s="69"/>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:60">
       <c r="C74">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -23837,7 +23844,7 @@
       </c>
       <c r="AC74" s="69"/>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:60">
       <c r="D75">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -23920,7 +23927,7 @@
       </c>
       <c r="AC75" s="69"/>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:60">
       <c r="E76">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24003,7 +24010,7 @@
       </c>
       <c r="AC76" s="69"/>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:60">
       <c r="F77">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24086,7 +24093,7 @@
       </c>
       <c r="AC77" s="69"/>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:60">
       <c r="I78">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24169,7 +24176,7 @@
       </c>
       <c r="AC78" s="69"/>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:60">
       <c r="J79">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24251,7 +24258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:60">
       <c r="K80">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24333,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:60">
       <c r="L81">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24415,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:60">
       <c r="M82">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24497,7 +24504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:60">
       <c r="P83">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24579,7 +24586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:60">
       <c r="Q84">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24661,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:60">
       <c r="R85">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24743,7 +24750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:60">
       <c r="S86">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24825,7 +24832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:60">
       <c r="T87">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24907,7 +24914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:60">
       <c r="W88">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24989,7 +24996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:60">
       <c r="X89">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -25071,7 +25078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:60">
       <c r="Y90">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -25153,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:60">
       <c r="Z91">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -25235,7 +25242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:60">
       <c r="B92" s="73"/>
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
@@ -25342,7 +25349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:60" ht="16.5" thickBot="1">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -25459,7 +25466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:60" ht="16.5" thickBot="1">
       <c r="AF94" t="s">
         <v>198</v>
       </c>
@@ -25568,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:60">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -25685,7 +25692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:60">
       <c r="AF96" t="s">
         <v>201</v>
       </c>
@@ -25774,7 +25781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:60">
       <c r="A97" t="s">
         <v>283</v>
       </c>
@@ -25978,7 +25985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:60">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -26070,17 +26077,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:60">
       <c r="A99">
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:60">
       <c r="A100">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:60">
       <c r="C102" t="s">
         <v>285</v>
       </c>
@@ -26094,7 +26101,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:60">
       <c r="C103" s="75">
         <f>(SUM(B97:E97)+SUM(I97:L97)+SUM(P97:S97)+SUM(W97:Z97))/(16)</f>
         <v>0.7985184567457424</v>
@@ -26111,7 +26118,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:60">
       <c r="B107" t="s">
         <v>290</v>
       </c>
@@ -26128,7 +26135,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:60">
       <c r="A108" t="s">
         <v>288</v>
       </c>
@@ -26148,7 +26155,7 @@
         <v>0.76121710071844428</v>
       </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:60">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -26168,7 +26175,7 @@
         <v>0.75812510778581255</v>
       </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:60">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -26186,6 +26193,373 @@
       </c>
       <c r="G110" s="76">
         <v>0.76362336369338024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1217A1-10CD-4D76-9B90-D2A99D70F002}">
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="28">
+        <v>30</v>
+      </c>
+      <c r="C2" s="29">
+        <v>30</v>
+      </c>
+      <c r="D2" s="29">
+        <v>30</v>
+      </c>
+      <c r="E2" s="29">
+        <v>30</v>
+      </c>
+      <c r="F2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="G2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="H2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="I2" s="29">
+        <v>30</v>
+      </c>
+      <c r="J2" s="29">
+        <v>30</v>
+      </c>
+      <c r="K2" s="29">
+        <v>30</v>
+      </c>
+      <c r="L2" s="29">
+        <v>30</v>
+      </c>
+      <c r="M2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="N2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="O2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="P2" s="29">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>30</v>
+      </c>
+      <c r="R2" s="29">
+        <v>30</v>
+      </c>
+      <c r="S2" s="29">
+        <v>30</v>
+      </c>
+      <c r="T2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="U2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="V2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="W2" s="29">
+        <v>30</v>
+      </c>
+      <c r="X2" s="29">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="29">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="29">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="AB2" s="29">
+        <v>24.5</v>
+      </c>
+      <c r="AC2" s="29">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="16.5" thickBot="1">
+      <c r="B3" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="K3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="L3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="M3" s="15">
+        <v>3</v>
+      </c>
+      <c r="N3" s="15">
+        <v>3</v>
+      </c>
+      <c r="O3" s="15">
+        <v>3</v>
+      </c>
+      <c r="P3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="R3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="S3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="T3" s="15">
+        <v>3</v>
+      </c>
+      <c r="U3" s="15">
+        <v>3</v>
+      </c>
+      <c r="V3" s="15">
+        <v>3</v>
+      </c>
+      <c r="W3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="X3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.5" thickBot="1"/>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="28">
+        <v>60</v>
+      </c>
+      <c r="C6" s="29">
+        <v>60</v>
+      </c>
+      <c r="D6" s="29">
+        <v>60</v>
+      </c>
+      <c r="E6" s="29">
+        <v>60</v>
+      </c>
+      <c r="F6" s="29">
+        <v>49</v>
+      </c>
+      <c r="G6" s="29">
+        <v>49</v>
+      </c>
+      <c r="H6" s="29">
+        <v>49</v>
+      </c>
+      <c r="I6" s="29">
+        <v>60</v>
+      </c>
+      <c r="J6" s="29">
+        <v>60</v>
+      </c>
+      <c r="K6" s="29">
+        <v>60</v>
+      </c>
+      <c r="L6" s="29">
+        <v>60</v>
+      </c>
+      <c r="M6" s="29">
+        <v>49</v>
+      </c>
+      <c r="N6" s="29">
+        <v>49</v>
+      </c>
+      <c r="O6" s="29">
+        <v>49</v>
+      </c>
+      <c r="P6" s="29">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>60</v>
+      </c>
+      <c r="R6" s="29">
+        <v>60</v>
+      </c>
+      <c r="S6" s="29">
+        <v>60</v>
+      </c>
+      <c r="T6" s="29">
+        <v>49</v>
+      </c>
+      <c r="U6" s="29">
+        <v>49</v>
+      </c>
+      <c r="V6" s="29">
+        <v>49</v>
+      </c>
+      <c r="W6" s="29">
+        <v>60</v>
+      </c>
+      <c r="X6" s="29">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="29">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" thickBot="1">
+      <c r="B7" s="14">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>6</v>
+      </c>
+      <c r="H7" s="15">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>11</v>
+      </c>
+      <c r="J7" s="15">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15">
+        <v>11</v>
+      </c>
+      <c r="L7" s="15">
+        <v>11</v>
+      </c>
+      <c r="M7" s="15">
+        <v>6</v>
+      </c>
+      <c r="N7" s="15">
+        <v>6</v>
+      </c>
+      <c r="O7" s="15">
+        <v>6</v>
+      </c>
+      <c r="P7" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>11</v>
+      </c>
+      <c r="R7" s="15">
+        <v>11</v>
+      </c>
+      <c r="S7" s="15">
+        <v>11</v>
+      </c>
+      <c r="T7" s="15">
+        <v>6</v>
+      </c>
+      <c r="U7" s="15">
+        <v>6</v>
+      </c>
+      <c r="V7" s="15">
+        <v>6</v>
+      </c>
+      <c r="W7" s="15">
+        <v>11</v>
+      </c>
+      <c r="X7" s="15">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -26194,12 +26568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -26371,6 +26739,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26381,22 +26755,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26414,6 +26772,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>

--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\oyviasp\.profil\stud\datasal\Desktop\master2022\input_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/NTNU/2022 vaar/Master/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A17A0-7786-4757-A06D-2E74A87DC581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5842EE3-40FE-AD45-B8F6-CF92A8C5C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29100" windowHeight="8325" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -953,7 +953,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1380,7 +1380,7 @@
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1694,29 +1694,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="2.875" customWidth="1"/>
-    <col min="9" max="36" width="4.625" customWidth="1"/>
+    <col min="2" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
+    <col min="9" max="36" width="4.6640625" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
     <col min="38" max="38" width="4.5" customWidth="1"/>
-    <col min="39" max="39" width="11.125" customWidth="1"/>
-    <col min="40" max="40" width="12.625" customWidth="1"/>
-    <col min="41" max="41" width="13.125" customWidth="1"/>
+    <col min="39" max="39" width="11.1640625" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" customWidth="1"/>
+    <col min="41" max="41" width="13.1640625" customWidth="1"/>
     <col min="42" max="42" width="3.5" customWidth="1"/>
-    <col min="43" max="43" width="8.875" customWidth="1"/>
+    <col min="43" max="43" width="8.83203125" customWidth="1"/>
     <col min="44" max="71" width="3.5" customWidth="1"/>
-    <col min="72" max="72" width="10.875" customWidth="1"/>
-    <col min="74" max="74" width="4.375" customWidth="1"/>
-    <col min="78" max="105" width="8.875" customWidth="1"/>
+    <col min="72" max="72" width="10.83203125" customWidth="1"/>
+    <col min="74" max="74" width="4.33203125" customWidth="1"/>
+    <col min="78" max="105" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="3" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:105" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>181</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:105" ht="16.5" thickBot="1">
+    <row r="2" spans="1:105" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="31">
         <v>0.1</v>
@@ -2135,7 +2135,7 @@
         <v>64</v>
       </c>
       <c r="AO2" s="49">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AP2" s="61"/>
       <c r="AQ2" s="25" t="s">
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:105" ht="16.5" thickBot="1">
+    <row r="3" spans="1:105" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -2430,7 +2430,7 @@
         <v>272.5</v>
       </c>
       <c r="AO3" s="62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP3" s="61"/>
       <c r="AQ3" s="25" t="s">
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:105">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -2665,7 +2665,7 @@
         <v>348.5</v>
       </c>
       <c r="AO4" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP4" s="61"/>
       <c r="AQ4" s="25" t="s">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="BX4" s="2"/>
     </row>
-    <row r="5" spans="1:105">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -2813,7 +2813,7 @@
         <v>352</v>
       </c>
       <c r="AO5" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP5" s="61"/>
       <c r="AQ5" s="25" t="s">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="BX5" s="2"/>
     </row>
-    <row r="6" spans="1:105" ht="16.5" thickBot="1">
+    <row r="6" spans="1:105" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -2961,7 +2961,7 @@
         <v>208</v>
       </c>
       <c r="AO6" s="62">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AP6" s="61"/>
       <c r="AQ6" s="25" t="s">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="BX6" s="2"/>
     </row>
-    <row r="7" spans="1:105">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
@@ -3109,7 +3109,7 @@
         <v>397</v>
       </c>
       <c r="AO7" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP7" s="61"/>
       <c r="AQ7" s="61"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="BX7" s="2"/>
     </row>
-    <row r="8" spans="1:105">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -3197,7 +3197,7 @@
         <v>67</v>
       </c>
       <c r="AO8" s="62">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AP8" s="61"/>
       <c r="AQ8" s="61"/>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="BX8" s="2"/>
     </row>
-    <row r="9" spans="1:105">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -3285,7 +3285,7 @@
         <v>211</v>
       </c>
       <c r="AO9" s="62">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AP9" s="61"/>
       <c r="AQ9" s="61"/>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="BX9" s="2"/>
     </row>
-    <row r="10" spans="1:105">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -3373,7 +3373,7 @@
         <v>188.5</v>
       </c>
       <c r="AO10" s="62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP10" s="61"/>
       <c r="AQ10" s="61"/>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="BX10" s="2"/>
     </row>
-    <row r="11" spans="1:105">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -3461,7 +3461,7 @@
         <v>425</v>
       </c>
       <c r="AO11" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP11" s="61"/>
       <c r="AQ11" s="61"/>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="BX11" s="2"/>
     </row>
-    <row r="12" spans="1:105">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -3549,7 +3549,7 @@
         <v>235</v>
       </c>
       <c r="AO12" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP12" s="61"/>
       <c r="AQ12" s="61"/>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="BX12" s="2"/>
     </row>
-    <row r="13" spans="1:105">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -3637,7 +3637,7 @@
         <v>272</v>
       </c>
       <c r="AO13" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP13" s="61"/>
       <c r="AQ13" s="61"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="BX13" s="2"/>
     </row>
-    <row r="14" spans="1:105">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -3725,7 +3725,7 @@
         <v>226</v>
       </c>
       <c r="AO14" s="62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP14" s="61"/>
       <c r="AQ14" s="61"/>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="BX14" s="2"/>
     </row>
-    <row r="15" spans="1:105">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -3813,7 +3813,7 @@
         <v>210</v>
       </c>
       <c r="AO15" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP15" s="61"/>
       <c r="AQ15" s="61"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="BX15" s="2"/>
     </row>
-    <row r="16" spans="1:105">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -3901,7 +3901,7 @@
         <v>61.5</v>
       </c>
       <c r="AO16" s="62">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AP16" s="61"/>
       <c r="AQ16" s="61"/>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="BX16" s="2"/>
     </row>
-    <row r="17" spans="1:76">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -3989,7 +3989,7 @@
         <v>211</v>
       </c>
       <c r="AO17" s="62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP17" s="61"/>
       <c r="AQ17" s="61"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="BX17" s="2"/>
     </row>
-    <row r="18" spans="1:76">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -4077,7 +4077,7 @@
         <v>106</v>
       </c>
       <c r="AO18" s="62">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AP18" s="61"/>
       <c r="AQ18" s="61"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="BX18" s="2"/>
     </row>
-    <row r="19" spans="1:76">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -4165,7 +4165,7 @@
         <v>305</v>
       </c>
       <c r="AO19" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP19" s="61"/>
       <c r="AQ19" s="61"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="BX19" s="2"/>
     </row>
-    <row r="20" spans="1:76">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -4253,7 +4253,7 @@
         <v>52.5</v>
       </c>
       <c r="AO20" s="62">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AP20" s="61"/>
       <c r="AQ20" s="61"/>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="BX20" s="2"/>
     </row>
-    <row r="21" spans="1:76">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -4341,7 +4341,7 @@
         <v>106</v>
       </c>
       <c r="AO21" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP21" s="61"/>
       <c r="AQ21" s="61"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="BX21" s="2"/>
     </row>
-    <row r="22" spans="1:76">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -4429,7 +4429,7 @@
         <v>142</v>
       </c>
       <c r="AO22" s="62">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AP22" s="61"/>
       <c r="AQ22" s="61"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="BX22" s="2"/>
     </row>
-    <row r="23" spans="1:76">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -4517,7 +4517,7 @@
         <v>134</v>
       </c>
       <c r="AO23" s="62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP23" s="61"/>
       <c r="AQ23" s="61"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="BX23" s="2"/>
     </row>
-    <row r="24" spans="1:76">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -4605,7 +4605,7 @@
         <v>86</v>
       </c>
       <c r="AO24" s="62">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AP24" s="61"/>
       <c r="AQ24" s="61"/>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="BX24" s="2"/>
     </row>
-    <row r="25" spans="1:76">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -4693,7 +4693,7 @@
         <v>187</v>
       </c>
       <c r="AO25" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP25" s="61"/>
       <c r="AQ25" s="61"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="BX25" s="2"/>
     </row>
-    <row r="26" spans="1:76" ht="16.5" thickBot="1">
+    <row r="26" spans="1:76" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
@@ -4781,7 +4781,7 @@
         <v>225.5</v>
       </c>
       <c r="AO26" s="50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP26" s="61"/>
       <c r="AQ26" s="61"/>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="BX26" s="2"/>
     </row>
-    <row r="27" spans="1:76">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -4903,7 +4903,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:76">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:76" ht="16.5" thickBot="1">
+    <row r="29" spans="1:76" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AT29" s="61"/>
       <c r="AU29" s="61"/>
       <c r="AV29" s="61"/>
@@ -4994,92 +4994,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:76">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.2">
       <c r="AT30" s="61"/>
       <c r="AU30" s="61"/>
       <c r="AV30" s="61"/>
     </row>
-    <row r="31" spans="1:76">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.2">
       <c r="AT31" s="61"/>
       <c r="AU31" s="61"/>
       <c r="AV31" s="61"/>
     </row>
-    <row r="32" spans="1:76">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.2">
       <c r="AT32" s="61"/>
       <c r="AU32" s="61"/>
       <c r="AV32" s="61"/>
     </row>
-    <row r="33" spans="46:48">
+    <row r="33" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT33" s="61"/>
       <c r="AU33" s="61"/>
       <c r="AV33" s="61"/>
     </row>
-    <row r="34" spans="46:48">
+    <row r="34" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT34" s="61"/>
       <c r="AU34" s="61"/>
       <c r="AV34" s="61"/>
     </row>
-    <row r="35" spans="46:48">
+    <row r="35" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT35" s="61"/>
       <c r="AU35" s="61"/>
       <c r="AV35" s="61"/>
     </row>
-    <row r="36" spans="46:48">
+    <row r="36" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT36" s="61"/>
       <c r="AU36" s="61"/>
       <c r="AV36" s="61"/>
     </row>
-    <row r="37" spans="46:48">
+    <row r="37" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT37" s="61"/>
       <c r="AU37" s="61"/>
       <c r="AV37" s="61"/>
     </row>
-    <row r="38" spans="46:48">
+    <row r="38" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT38" s="61"/>
       <c r="AU38" s="61"/>
       <c r="AV38" s="61"/>
     </row>
-    <row r="39" spans="46:48">
+    <row r="39" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT39" s="61"/>
       <c r="AU39" s="61"/>
       <c r="AV39" s="61"/>
     </row>
-    <row r="40" spans="46:48">
+    <row r="40" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT40" s="61"/>
       <c r="AU40" s="61"/>
       <c r="AV40" s="61"/>
     </row>
-    <row r="41" spans="46:48">
+    <row r="41" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT41" s="61"/>
       <c r="AU41" s="61"/>
       <c r="AV41" s="61"/>
     </row>
-    <row r="42" spans="46:48">
+    <row r="42" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT42" s="61"/>
       <c r="AU42" s="61"/>
       <c r="AV42" s="61"/>
     </row>
-    <row r="43" spans="46:48">
+    <row r="43" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT43" s="61"/>
       <c r="AU43" s="61"/>
       <c r="AV43" s="61"/>
     </row>
-    <row r="44" spans="46:48">
+    <row r="44" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT44" s="61"/>
       <c r="AU44" s="61"/>
       <c r="AV44" s="61"/>
     </row>
-    <row r="45" spans="46:48">
+    <row r="45" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT45" s="61"/>
       <c r="AU45" s="61"/>
       <c r="AV45" s="61"/>
     </row>
-    <row r="46" spans="46:48">
+    <row r="46" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT46" s="61"/>
       <c r="AU46" s="61"/>
       <c r="AV46" s="61"/>
     </row>
-    <row r="47" spans="46:48">
+    <row r="47" spans="46:48" x14ac:dyDescent="0.2">
       <c r="AT47" s="61"/>
       <c r="AU47" s="61"/>
       <c r="AV47" s="61"/>
@@ -5097,22 +5097,22 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="7" max="31" width="4" customWidth="1"/>
-    <col min="32" max="32" width="4.375" customWidth="1"/>
-    <col min="34" max="58" width="5.125" customWidth="1"/>
-    <col min="59" max="65" width="3.875" customWidth="1"/>
-    <col min="66" max="66" width="4.625" customWidth="1"/>
+    <col min="32" max="32" width="4.33203125" customWidth="1"/>
+    <col min="34" max="58" width="5.1640625" customWidth="1"/>
+    <col min="59" max="65" width="3.83203125" customWidth="1"/>
+    <col min="66" max="66" width="4.6640625" customWidth="1"/>
     <col min="67" max="67" width="6" customWidth="1"/>
-    <col min="68" max="68" width="4.375" customWidth="1"/>
+    <col min="68" max="68" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:77" ht="16.5" thickBot="1">
+    <row r="1" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>180</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="2:77">
+    <row r="2" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:77" ht="16.5" thickBot="1">
+    <row r="3" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>5</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:77">
+    <row r="4" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:77">
+    <row r="5" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:77" ht="16.5" thickBot="1">
+    <row r="6" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:77">
+    <row r="7" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
         <v>12</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:77" ht="16.5" thickBot="1">
+    <row r="8" spans="2:77" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -6016,92 +6016,92 @@
       <c r="BX8" s="44"/>
       <c r="BY8" s="44"/>
     </row>
-    <row r="9" spans="2:77">
+    <row r="9" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D9" s="46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:77">
+    <row r="10" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D10" s="47" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:77">
+    <row r="11" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D11" s="47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:77">
+    <row r="12" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D12" s="47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:77">
+    <row r="13" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D13" s="47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:77">
+    <row r="14" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D14" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:77">
+    <row r="15" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D15" s="47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:77">
+    <row r="16" spans="2:77" x14ac:dyDescent="0.2">
       <c r="D16" s="47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" s="47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="16.5" thickBot="1">
+    <row r="26" spans="4:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D26" s="48" t="s">
         <v>116</v>
       </c>
@@ -6120,9 +6120,9 @@
       <selection activeCell="A32" sqref="A32:BE102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>5.1020408163265302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="16.5" thickBot="1">
+    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -7836,7 +7836,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -7860,7 +7860,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -7883,7 +7883,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -7906,7 +7906,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7929,7 +7929,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7952,7 +7952,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7975,7 +7975,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7998,7 +7998,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8021,7 +8021,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8044,7 +8044,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -8067,7 +8067,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8090,7 +8090,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -8113,7 +8113,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -8136,7 +8136,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -8159,7 +8159,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -8182,7 +8182,7 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -8205,7 +8205,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -8228,7 +8228,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -8251,7 +8251,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8274,7 +8274,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -8297,7 +8297,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -8320,7 +8320,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -8343,7 +8343,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -8366,7 +8366,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -8389,7 +8389,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -8412,7 +8412,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -8435,7 +8435,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -8458,7 +8458,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -8481,7 +8481,7 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -8504,7 +8504,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -8527,7 +8527,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8550,7 +8550,7 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8573,7 +8573,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8596,7 +8596,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8619,7 +8619,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8642,7 +8642,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8682,9 +8682,9 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="16.5" thickBot="1">
+    <row r="1" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -8772,7 +8772,7 @@
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -9036,7 +9036,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -9476,7 +9476,7 @@
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -9564,7 +9564,7 @@
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -9828,7 +9828,7 @@
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -9916,7 +9916,7 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -10092,7 +10092,7 @@
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -10180,7 +10180,7 @@
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -10356,7 +10356,7 @@
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -10532,7 +10532,7 @@
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -10620,7 +10620,7 @@
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -10796,7 +10796,7 @@
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -10884,7 +10884,7 @@
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickBot="1">
+    <row r="26" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -10990,7 +10990,7 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -11008,7 +11008,7 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -11026,7 +11026,7 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -11044,7 +11044,7 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -11062,7 +11062,7 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -11097,12 +11097,12 @@
       <selection activeCell="H147" sqref="H147:AI148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>5.1020408163265302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>3.8461538461538464E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="16.5" thickBot="1">
+    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -12816,7 +12816,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -12840,7 +12840,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -12863,7 +12863,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -12886,7 +12886,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -12909,7 +12909,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5" thickBot="1">
+    <row r="41" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="W41" t="s">
         <v>188</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>105</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:60">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="16.5" thickBot="1">
+    <row r="66" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -15292,8 +15292,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="16.5" thickBot="1"/>
-    <row r="68" spans="1:60" ht="16.5" thickBot="1">
+    <row r="67" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:60">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>191</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:60">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>1</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:60">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B73">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15717,7 +15717,7 @@
       </c>
       <c r="AC73" s="69"/>
     </row>
-    <row r="74" spans="1:60">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C74">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="AC74" s="69"/>
     </row>
-    <row r="75" spans="1:60">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D75">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="AC75" s="69"/>
     </row>
-    <row r="76" spans="1:60">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="E76">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -15966,7 +15966,7 @@
       </c>
       <c r="AC76" s="69"/>
     </row>
-    <row r="77" spans="1:60">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="F77">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="AC77" s="69"/>
     </row>
-    <row r="78" spans="1:60">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="I78">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="AC78" s="69"/>
     </row>
-    <row r="79" spans="1:60">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="J79">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16214,7 +16214,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:60">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="K80">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16296,7 +16296,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:60">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="L81">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16378,7 +16378,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:60">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="M82">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16460,7 +16460,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:60">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="P83">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16542,7 +16542,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:60">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Q84">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16624,7 +16624,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:60">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="R85">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16706,7 +16706,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:60">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="S86">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16788,7 +16788,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:60">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="T87">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16870,7 +16870,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:60">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="W88">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -16952,7 +16952,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:60">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="X89">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -17034,7 +17034,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:60">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y90">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -17116,7 +17116,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:60">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Z91">
         <f>$B$68</f>
         <v>8.4316816207935581</v>
@@ -17198,7 +17198,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:60">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B92" s="73"/>
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
@@ -17305,7 +17305,7 @@
         <v>1.3717807289235863E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="16.5" thickBot="1">
+    <row r="93" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="16.5" thickBot="1">
+    <row r="94" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AF94" t="s">
         <v>198</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>16.061181057689225</v>
       </c>
     </row>
-    <row r="96" spans="1:60">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AF96" t="s">
         <v>201</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>283</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -18033,17 +18033,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:60">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>24.5</v>
       </c>
     </row>
-    <row r="102" spans="1:60">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>285</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:60">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C103" s="75">
         <f>(SUM(B97:E97)+SUM(I97:L97)+SUM(P97:S97)+SUM(W97:Z97))/(16)</f>
         <v>0.82352703252328951</v>
@@ -18068,7 +18068,7 @@
         <v>0.85328616598666263</v>
       </c>
     </row>
-    <row r="107" spans="1:60">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>290</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:60">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>288</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>0.85328616598666263</v>
       </c>
     </row>
-    <row r="109" spans="1:60">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>0.85322557172891611</v>
       </c>
     </row>
-    <row r="110" spans="1:60">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -18145,17 +18145,17 @@
         <v>0.85348612559247861</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>293</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>33</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>290</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>289</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>44</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>290</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>289</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H128">
         <f t="shared" ref="H128:H130" si="23">$E$126</f>
         <v>3</v>
@@ -18417,7 +18417,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H129">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -18447,7 +18447,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H130">
         <f t="shared" si="23"/>
         <v>3</v>
@@ -18477,12 +18477,12 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>293</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>33</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>289</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>44</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>11.100000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>290</v>
       </c>
@@ -18677,7 +18677,7 @@
       <c r="M140" s="77"/>
       <c r="N140" s="77"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H142" s="77">
         <f t="shared" ref="H142:H144" si="31">$E$140</f>
         <v>2.7</v>
@@ -18751,7 +18751,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H143" s="77">
         <f t="shared" si="31"/>
         <v>2.7</v>
@@ -18781,7 +18781,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H144" s="77">
         <f t="shared" si="31"/>
         <v>2.7</v>
@@ -18811,7 +18811,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="146" spans="1:35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H146">
         <v>1</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>281</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>22.700000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H148" s="77">
         <f>H127+H141</f>
         <v>5.7</v>
@@ -19141,12 +19141,12 @@
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>114</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>113</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>112</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>115</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>105</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>41</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="16.5" thickBot="1">
+    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>116</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -20860,7 +20860,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -20884,7 +20884,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -20907,7 +20907,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -20930,7 +20930,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -20953,7 +20953,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="16.5" thickBot="1">
+    <row r="41" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="W41" t="s">
         <v>188</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -21151,7 +21151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15" customHeight="1">
+    <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -22386,7 +22386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -22576,7 +22576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>105</v>
       </c>
@@ -22766,7 +22766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
@@ -22861,7 +22861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -23146,7 +23146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:60">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="16.5" thickBot="1">
+    <row r="66" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -23336,8 +23336,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="16.5" thickBot="1"/>
-    <row r="68" spans="1:60" ht="16.5" thickBot="1">
+    <row r="67" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>191</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:60">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>1</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:60">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B73">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -23761,7 +23761,7 @@
       </c>
       <c r="AC73" s="69"/>
     </row>
-    <row r="74" spans="1:60">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C74">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -23844,7 +23844,7 @@
       </c>
       <c r="AC74" s="69"/>
     </row>
-    <row r="75" spans="1:60">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D75">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -23927,7 +23927,7 @@
       </c>
       <c r="AC75" s="69"/>
     </row>
-    <row r="76" spans="1:60">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="E76">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="AC76" s="69"/>
     </row>
-    <row r="77" spans="1:60">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="F77">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="AC77" s="69"/>
     </row>
-    <row r="78" spans="1:60">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="I78">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24176,7 +24176,7 @@
       </c>
       <c r="AC78" s="69"/>
     </row>
-    <row r="79" spans="1:60">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="J79">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24258,7 +24258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="K80">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24340,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:60">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="L81">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24422,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:60">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="M82">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24504,7 +24504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:60">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="P83">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:60">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Q84">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24668,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:60">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="R85">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24750,7 +24750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:60">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="S86">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24832,7 +24832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:60">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="T87">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24914,7 +24914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:60">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="W88">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:60">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="X89">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:60">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y90">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:60">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Z91">
         <f>$B$68</f>
         <v>3.1849598388794802</v>
@@ -25242,7 +25242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:60">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B92" s="73"/>
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="16.5" thickBot="1">
+    <row r="93" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -25466,7 +25466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="16.5" thickBot="1">
+    <row r="94" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AF94" t="s">
         <v>198</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:60">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AF96" t="s">
         <v>201</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>283</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -26077,17 +26077,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:60">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:60">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>285</v>
       </c>
@@ -26101,7 +26101,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:60">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C103" s="75">
         <f>(SUM(B97:E97)+SUM(I97:L97)+SUM(P97:S97)+SUM(W97:Z97))/(16)</f>
         <v>0.7985184567457424</v>
@@ -26118,7 +26118,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="107" spans="1:60">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>290</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:60">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>288</v>
       </c>
@@ -26155,7 +26155,7 @@
         <v>0.76121710071844428</v>
       </c>
     </row>
-    <row r="109" spans="1:60">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>0.75812510778581255</v>
       </c>
     </row>
-    <row r="110" spans="1:60">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -26208,10 +26208,10 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:29">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>299</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>5.5</v>
       </c>
@@ -26386,8 +26386,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16.5" thickBot="1"/>
-    <row r="6" spans="1:29">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>300</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16.5" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>11</v>
       </c>
@@ -26568,6 +26568,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -26739,35 +26754,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26789,9 +26779,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/NTNU/2022 vaar/Master/master2022/input_output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5842EE3-40FE-AD45-B8F6-CF92A8C5C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8C49E-0E53-204A-9F6A-BD0E38FDEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="9380" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ICcalculations" sheetId="18" r:id="rId6"/>
     <sheet name="BED_OCC" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AO25" sqref="AO25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2041,88 +2041,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="28">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="J2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="K2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="L2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="M2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="Q2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="R2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="S2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="T2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="U2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="V2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="W2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="X2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="Y2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="Z2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AA2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AC2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AE2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AF2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AG2" s="29">
-        <v>60</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AH2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AJ2" s="29">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AK2" s="49">
         <v>20</v>
@@ -2336,88 +2336,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="J3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="K3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="L3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="M3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="N3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="O3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="P3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Q3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="R3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="S3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="T3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="V3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="W3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="X3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AF3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" s="15">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ3" s="15">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AK3" s="50">
         <v>2</v>
@@ -4944,8 +4944,8 @@
       <c r="AM28" s="24"/>
       <c r="AN28" s="24"/>
       <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
       <c r="AR28" s="24"/>
       <c r="AS28" s="65"/>
       <c r="AT28" s="61"/>
@@ -26568,21 +26568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -26754,31 +26739,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26794,4 +26770,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input_output/model_input_25groups.xlsx
+++ b/input_output/model_input_25groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8C49E-0E53-204A-9F6A-BD0E38FDEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CFA04-80B9-6547-AF98-9199E2A587FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="4460" yWindow="900" windowWidth="28800" windowHeight="18000" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2041,88 +2041,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="28">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="J2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="K2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="L2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="M2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="R2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="S2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="T2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="V2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="W2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="X2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="29">
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="29">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="49">
         <v>20</v>
@@ -2336,88 +2336,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="J3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="K3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="M3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="N3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="P3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="R3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="S3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="T3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="W3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="X3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="15">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="50">
         <v>2</v>
@@ -5094,7 +5094,7 @@
   <dimension ref="B1:BY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8679,7 +8679,7 @@
   <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B2" sqref="B2:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11093,8 +11093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A5F17-A83B-5047-A62F-D9F4A4FFE9EE}">
   <dimension ref="A1:BH148"/>
   <sheetViews>
-    <sheetView topLeftCell="H108" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147:AI148"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26205,7 +26205,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26568,6 +26568,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -26739,15 +26748,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -26755,6 +26755,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26768,14 +26776,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
